--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_ecoli_D75_R25_Pproporcion_I0.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_ecoli_D75_R25_Pproporcion_I0.xlsx
@@ -621,7 +621,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[175, 196, 5, 173, 127, 79, 121]</t>
+          <t>[175, 196, 5, 173, 127, 79, 80]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -631,24 +631,24 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.610361416210729, 0.6387641959414919, 0.7343536363378614, 0.7746049964959417, 0.8390569432692897, 0.8435710900622033, 0.8621107664632314]</t>
+          <t>[0.6151535575187592, 0.6404309321984378, 0.7527913698036364, 0.7800904968969594, 0.8398590378017112, 0.8572404625301836, 0.8643939661593343]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[196, 5, 173, 127, 79, 121, 80]</t>
+          <t>[196, 5, 173, 127, 79, 80, 121]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.6387641959414919, 0.7343536363378614, 0.7746049964959417, 0.8390569432692897, 0.8435710900622033, 0.8621107664632314, 0.8629508073342753]</t>
+          <t>[0.6404309321984378, 0.7527913698036364, 0.7800904968969594, 0.8398590378017112, 0.8572404625301836, 0.8643939661593343, 0.8646570164204255]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8413140166657465</v>
+        <v>0.8485497501659474</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.466380</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[144, 72, 232, 139, 265, 79, 233]</t>
+          <t>[144, 72, 232, 139, 265, 233, 79]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -717,24 +717,24 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.4672411750844987, 0.484343143550428, 0.49252401362689624, 0.5480468043661527, 0.5852213479916469, 0.5916564613525036, 0.5943176150122738]</t>
+          <t>[0.47496819826916825, 0.5061420956421864, 0.5145704442034451, 0.5593934081746329, 0.5907934996104219, 0.6176497476569909, 0.6285880019178799]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[144, 72, 139, 265, 79, 233, 218]</t>
+          <t>[144, 72, 139, 265, 233, 79, 218]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.4672411750844987, 0.484343143550428, 0.5480468043661527, 0.5852213479916469, 0.5916564613525036, 0.5943176150122738, 0.7117765878155562]</t>
+          <t>[0.47496819826916825, 0.5061420956421864, 0.5593934081746329, 0.5907934996104219, 0.6176497476569909, 0.6285880019178799, 0.712086434152655]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5884389046720753</v>
+        <v>0.6042216236337064</v>
       </c>
       <c r="W3" t="n">
         <v>4</v>
@@ -747,7 +747,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.467381</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
@@ -797,34 +797,34 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[0, 79, 93, 173, 152, 184, 2]</t>
+          <t>[0, 79, 93, 152, 173, 184, 72]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[0.7343536363378614, 0.8253520746761466, 0.8263971713499464, 0.8669601791935363, 0.8705350059462028, 0.8877265901470622, 0.9507784260511827]</t>
+          <t>[0.7527913698036364, 0.834086411648757, 0.8621910533605378, 0.887219718547849, 0.8922422128223295, 0.9246073651965244, 0.9555852498731121]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[0, 79, 93, 173, 184, 2, 72]</t>
+          <t>[0, 79, 93, 173, 184, 72, 2]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[0.7343536363378614, 0.8253520746761466, 0.8263971713499464, 0.8669601791935363, 0.8877265901470622, 0.9507784260511827, 0.9515026649293605]</t>
+          <t>[0.7527913698036364, 0.834086411648757, 0.8621910533605378, 0.8922422128223295, 0.9246073651965244, 0.9555852498731121, 0.9712494250896266]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8791307980466325</v>
+        <v>0.908424789009427</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.467381</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
@@ -883,17 +883,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[189, 195, 18, 201, 99, 204, 40]</t>
+          <t>[189, 195, 99, 201, 18, 204, 40]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 1, 1, 0]</t>
+          <t>[1, 1, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.8235094669300224, 0.9259552402925781, 1.1588540213884966, 1.1760232178299912, 1.1951797157581603, 1.1993060458901301, 1.2027383565873864]</t>
+          <t>[0.8466337409387247, 0.9814860883963605, 1.2082641097458762, 1.2132241290571013, 1.216425098850246, 1.2240942780506507, 1.2398703510871014]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.8235094669300224, 0.9259552402925781, 1.1951797157581603, 1.1993060458901301, 1.3275508386866792, 1.5091977063006687, 1.7025135794765138]</t>
+          <t>[0.8466337409387247, 0.9814860883963605, 1.2082641097458762, 1.2240942780506507, 1.3995616301348108, 1.5844933291415235, 1.7552373206468406]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.197242880824145</v>
+        <v>1.220259688450448</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.467381</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[132, 121, 175, 73, 122, 94, 72]</t>
+          <t>[132, 121, 175, 73, 94, 122, 72]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -979,24 +979,24 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.18277229686357888, 0.3752789365153362, 0.43491048303140106, 0.4554153086871318, 0.47709516412611364, 0.4906331663180268, 0.5251820176377969]</t>
+          <t>[0.19292323632052646, 0.382965788249662, 0.4385053283021172, 0.458966614759032, 0.49450453910989334, 0.5000197802240262, 0.5493958926210997]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[132, 121, 122, 94, 72, 79, 127]</t>
+          <t>[132, 121, 94, 122, 72, 79, 127]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[0.18277229686357888, 0.3752789365153362, 0.47709516412611364, 0.4906331663180268, 0.5251820176377969, 0.5447530122858969, 0.5498285356527424]</t>
+          <t>[0.19292323632052646, 0.382965788249662, 0.49450453910989334, 0.5000197802240262, 0.5493958926210997, 0.5522145386802149, 0.559135636071553]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4838641652220702</v>
+        <v>0.4972621596669597</v>
       </c>
       <c r="W6" t="n">
         <v>2</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.467381</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.21286173804405556, 0.3709974238219604, 0.4382020076897488, 0.4610059462539289, 0.5257178756940794, 0.5672450210842174, 0.6155973420054134]</t>
+          <t>[0.21443304078111106, 0.37657968023864064, 0.44166855888827006, 0.46367388917786856, 0.5441757905247957, 0.5862986770128233, 0.6586576878652755]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1079,14 +1079,14 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[0.21286173804405556, 0.3709974238219604, 0.4382020076897488, 0.5257178756940794, 0.5672450210842174, 0.6561214586808956, 0.6915580870716876]</t>
+          <t>[0.21443304078111106, 0.37657968023864064, 0.44166855888827006, 0.5441757905247957, 0.5862986770128233, 0.6675410977537132, 0.7019994180770339]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5464814483891484</v>
+        <v>0.5652372337688095</v>
       </c>
       <c r="W7" t="n">
         <v>2</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.467381</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[100, 64, 163, 105, 149, 140, 228]</t>
+          <t>[100, 64, 163, 105, 140, 149, 228]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.40800778813903715, 0.422334107389828, 0.4977276584015013, 0.708733986081233, 0.7686890247993353, 0.769184942989652, 0.7815709793642637]</t>
+          <t>[0.4349828846984585, 0.4440780569626893, 0.5026594241535012, 0.7243326989352031, 0.7693295435107026, 0.7696327088989122, 0.8103828987478885]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1169,14 +1169,14 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.7815709793642637, 0.8777001908686367, 0.9534146147809424, 0.995012012101814, 1.0048759338626432, 1.0059836358278655, 1.043953702081488]</t>
+          <t>[0.8103828987478885, 0.9087303366656283, 0.9968150129861462, 1.0473195297898352, 1.066507076490237, 1.0724194299240706, 1.1108222371322682]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7689369838944937</v>
+        <v>0.7694811262048074</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.467381</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[218, 133, 17, 53, 247, 143, 265]</t>
+          <t>[218, 17, 133, 247, 53, 143, 265]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1245,24 +1245,24 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.38838433182150356, 0.426844870949548, 0.4382020076897488, 0.5450905934742981, 0.5582900753595698, 0.5735782381848898, 0.6062080887344358]</t>
+          <t>[0.39095401051573214, 0.44166855888827006, 0.44197788214035183, 0.5657425911008691, 0.5657652392348499, 0.5852621750318007, 0.6072419219019135]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[218, 133, 17, 53, 247, 143, 265]</t>
+          <t>[218, 17, 133, 247, 53, 143, 265]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.38838433182150356, 0.426844870949548, 0.4382020076897488, 0.5450905934742981, 0.5582900753595698, 0.5735782381848898, 0.6062080887344358]</t>
+          <t>[0.39095401051573214, 0.44166855888827006, 0.44197788214035183, 0.5657425911008691, 0.5657652392348499, 0.5852621750318007, 0.6072419219019135]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5659341567722298</v>
+        <v>0.5755137071333253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.467381</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -1321,34 +1321,34 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[235, 73, 43, 131, 228, 163, 52]</t>
+          <t>[235, 73, 43, 131, 228, 52, 163]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 1, 0, 1]</t>
+          <t>[0, 0, 0, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.3034718302189095, 0.355780890061871, 0.4298268421551355, 0.45332560107096037, 0.4707701001400842, 0.4741393316580485, 0.496033549679362]</t>
+          <t>[0.3103814642049055, 0.3682859978262944, 0.4440921218233171, 0.45538597269572884, 0.4761108863753461, 0.5023188522134205, 0.5041630762927459]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[131, 228, 52, 117, 212, 94, 80]</t>
+          <t>[131, 228, 52, 212, 117, 94, 80]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.45332560107096037, 0.4707701001400842, 0.496033549679362, 0.5119046302760444, 0.5158762938484103, 0.5539048483155706, 0.6020508176344974]</t>
+          <t>[0.45538597269572884, 0.4761108863753461, 0.5023188522134205, 0.5285094283492562, 0.5458063824467221, 0.5684017989949549, 0.6091852577424387]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4724547158990663</v>
+        <v>0.4892148692943833</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.467381</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -1407,34 +1407,34 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[131, 43, 48, 255, 212, 202, 97]</t>
+          <t>[131, 43, 48, 212, 255, 202, 97]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 0, 0]</t>
+          <t>[1, 0, 1, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.300772181670555, 0.3607952825408134, 0.496033549679362, 0.5776162630598557, 0.5827742546441335, 0.6299391632404137, 0.6390904232663386]</t>
+          <t>[0.3068319462652802, 0.37591044889509745, 0.5023188522134205, 0.589451538054015, 0.6118749054031555, 0.6303322311878704, 0.6468790362682084]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[131, 48, 212, 94, 117, 126, 228]</t>
+          <t>[131, 48, 212, 94, 117, 228, 126]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.300772181670555, 0.496033549679362, 0.5827742546441335, 0.6639052839664307, 0.6645250129594277, 0.7812160037950039, 0.8043221547290171]</t>
+          <t>[0.3068319462652802, 0.5023188522134205, 0.589451538054015, 0.6697258988990379, 0.6909888690686318, 0.816307311470062, 0.8272172534578219]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6063567089422736</v>
+        <v>0.6211035682955129</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.467381</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[44, 133, 247, 17, 210, 218, 230]</t>
+          <t>[133, 44, 247, 17, 210, 218, 230]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1503,24 +1503,24 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.5450905934742981, 0.5566143342043189, 0.5800420025624597, 0.7442873432536898, 0.7812625915442334, 0.8113444850119196, 0.837609443740022]</t>
+          <t>[0.5592215566122907, 0.5657652392348499, 0.5919153154566646, 0.76969245558047, 0.7943349714766625, 0.8212149720946738, 0.845491958165618]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[44, 133, 247, 17, 210, 218, 230]</t>
+          <t>[133, 44, 247, 17, 210, 218, 230]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.5450905934742981, 0.5566143342043189, 0.5800420025624597, 0.7442873432536898, 0.7812625915442334, 0.8113444850119196, 0.837609443740022]</t>
+          <t>[0.5592215566122907, 0.5657652392348499, 0.5919153154566646, 0.76969245558047, 0.7943349714766625, 0.8212149720946738, 0.845491958165618]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7963035382780765</v>
+        <v>0.8077749717856681</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.467381</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[65, 94, 105, 173, 108, 93, 149]</t>
+          <t>[65, 94, 105, 173, 108, 93, 148]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1589,24 +1589,24 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.6413009799452211, 0.6875355056508228, 0.726488989433943, 0.7970079966215803, 0.9517325744275554, 1.0014962846573037, 1.0123313707497807]</t>
+          <t>[0.650674465813613, 0.7043983745997187, 0.7435865367123199, 0.8195789653315282, 0.9805380394253854, 1.0206215295442342, 1.0292478004500427]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[94, 173, 93, 12, 79, 132, 52]</t>
+          <t>[94, 173, 93, 12, 52, 132, 79]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[0.6875355056508228, 0.7970079966215803, 1.0014962846573037, 1.0265566307416654, 1.0422317726174641, 1.0470665399764292, 1.0568540893882903]</t>
+          <t>[0.7043983745997187, 0.8195789653315282, 1.0206215295442342, 1.048597608963137, 1.064922391531469, 1.0775939304085802, 1.0836866966104124]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9766144295424295</v>
+        <v>1.00057978448481</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.468379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -1665,34 +1665,34 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[121, 79, 132, 175, 265, 2, 122]</t>
+          <t>[79, 121, 132, 265, 175, 122, 2]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.3496393524685109, 0.35814398686594345, 0.44425881910726417, 0.45916282474291154, 0.46809466903819835, 0.484343143550428, 0.49499690774566685]</t>
+          <t>[0.36527743661689377, 0.3747343937499917, 0.4586685097622864, 0.474713081092318, 0.47863680325038155, 0.4964289475960245, 0.5061420956421864]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[121, 79, 132, 265, 2, 122, 12]</t>
+          <t>[79, 121, 132, 265, 122, 2, 12]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.3496393524685109, 0.35814398686594345, 0.44425881910726417, 0.46809466903819835, 0.484343143550428, 0.49499690774566685, 0.5251820176377969]</t>
+          <t>[0.36527743661689377, 0.3747343937499917, 0.4586685097622864, 0.474713081092318, 0.4964289475960245, 0.5061420956421864, 0.5493958926210997]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4762189062943132</v>
+        <v>0.487532875423203</v>
       </c>
       <c r="W14" t="n">
         <v>2</v>
@@ -1701,11 +1701,11 @@
         <v>0.4628711962152653</v>
       </c>
       <c r="Y14" t="n">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.468379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -1755,34 +1755,34 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[183, 184, 2, 144, 186, 139, 17]</t>
+          <t>[183, 184, 2, 186, 144, 139, 53]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.5587223573308889, 0.8088749738207938, 0.8651859341881893, 0.940547884098581, 0.946805682431276, 0.9517052704134114, 1.0468498300615812]</t>
+          <t>[0.5603953567589891, 0.8362680582799068, 0.9097964025631995, 0.9680787332225108, 0.982343776219399, 0.9852368910793989, 1.0803589192505836]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[183, 184, 2, 144, 139, 17, 226]</t>
+          <t>[183, 184, 2, 144, 139, 53, 17]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[0.5587223573308889, 0.8088749738207938, 0.8651859341881893, 0.940547884098581, 0.9517052704134114, 1.0468498300615812, 1.0554603874935002]</t>
+          <t>[0.5603953567589891, 0.8362680582799068, 0.9097964025631995, 0.982343776219399, 0.9852368910793989, 1.0803589192505836, 1.1140509120071846]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.9492554764223438</v>
+        <v>0.9837903336493989</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.468379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -1851,24 +1851,24 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.35814398686594345, 0.4070113027932198, 0.4397790003085115, 0.4608232139430562, 0.47396878522913527, 0.5013450917170513, 0.5411621547180041]</t>
+          <t>[0.36527743661689377, 0.42918053241565834, 0.44824583318651307, 0.46733362174284976, 0.47609316249561023, 0.5053506037512405, 0.542550055216679]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[72, 173, 121, 132, 117, 12, 94]</t>
+          <t>[72, 173, 121, 132, 117, 12, 233]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[0.35814398686594345, 0.4070113027932198, 0.4397790003085115, 0.47396878522913527, 0.5411621547180041, 0.5447530122858969, 0.5528159653353787]</t>
+          <t>[0.36527743661689377, 0.42918053241565834, 0.44824583318651307, 0.47609316249561023, 0.542550055216679, 0.5522145386802149, 0.5652713170144583]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4876569384730933</v>
+        <v>0.4907218831234254</v>
       </c>
       <c r="W16" t="n">
         <v>5</v>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.468379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -1941,24 +1941,24 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.39193938876656653, 0.5080148126115259, 0.5390132808673175, 0.5849609404384695, 0.6020508176344974, 0.6121934158670201, 0.6222221027201054]</t>
+          <t>[0.40805108997054484, 0.5112649847280869, 0.5505176725580215, 0.5980033069022015, 0.6091852577424387, 0.6216929239756005, 0.6274498245417764]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[121, 87, 48, 127, 79, 72, 173]</t>
+          <t>[121, 87, 48, 127, 79, 173, 72]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[0.39193938876656653, 0.5390132808673175, 0.6020508176344974, 0.6222221027201054, 0.656935286357389, 0.6672277739967957, 0.6802651643412381]</t>
+          <t>[0.40805108997054484, 0.5505176725580215, 0.6091852577424387, 0.6274498245417764, 0.6864883392939882, 0.6920476884095672, 0.7096028455288947]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6071221167507588</v>
+        <v>0.6154390908590196</v>
       </c>
       <c r="W17" t="n">
         <v>3</v>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.468379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2004,14 +2004,14 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N18" t="b">
         <v>1</v>
@@ -2021,34 +2021,34 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[80, 235, 121, 236, 228, 143, 127]</t>
+          <t>[80, 121, 235, 236, 228, 127, 153]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 1, 1]</t>
+          <t>[1, 1, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.5390132808673175, 0.6775617602691882, 0.6778530760562712, 0.6830220863616847, 0.7291085101463568, 0.7478043385211675, 0.7481897533753419]</t>
+          <t>[0.5505176725580215, 0.6947878941439266, 0.696225148589878, 0.7064669646624254, 0.7511474090696254, 0.7590007195263645, 0.7715810551154326]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[80, 121, 228, 143, 127, 48, 72]</t>
+          <t>[80, 121, 228, 127, 143, 48, 72]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[0.5390132808673175, 0.6778530760562712, 0.7291085101463568, 0.7478043385211675, 0.7481897533753419, 0.8026817042661645, 0.8425927508485196]</t>
+          <t>[0.5505176725580215, 0.6947878941439266, 0.7511474090696254, 0.7590007195263645, 0.7768270449678502, 0.8243473049848054, 0.8737268259518857]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>0.7384564243337621</v>
+        <v>0.755074064297995</v>
       </c>
       <c r="W18" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.468379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[65, 173, 108, 152, 148, 6, 79]</t>
+          <t>[65, 173, 108, 148, 152, 6, 79]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.41039769556681854, 0.4829118325643496, 0.6394835201871025, 0.6766884895300109, 0.6776447239933276, 0.7732485652570947, 0.7992152597461645]</t>
+          <t>[0.4195896945632307, 0.48764516161175975, 0.6653412268037457, 0.6795247161174952, 0.6872133087732757, 0.8045006592821974, 0.822875100994316]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2131,14 +2131,14 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[0.4829118325643496, 0.7992152597461645, 0.8263971713499464, 0.8866410140558331, 0.9082356832667023, 0.9462973124300814, 1.0014962846573037]</t>
+          <t>[0.48764516161175975, 0.822875100994316, 0.8621910533605378, 0.8919371978656385, 0.9133520851211948, 0.950375428352546, 1.0206215295442342]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7254466446252112</v>
+        <v>0.7458569840277365</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.468379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[117, 73, 12, 173, 43, 132, 79]</t>
+          <t>[117, 73, 12, 173, 43, 132, 48]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2207,24 +2207,24 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.41492855327551825, 0.45658946835195674, 0.4906331663180268, 0.5094941398027188, 0.5206536397767173, 0.5526796332242571, 0.5528159653353787]</t>
+          <t>[0.4298048854437044, 0.46146165962962116, 0.49450453910989334, 0.5115821808729377, 0.5228402045932503, 0.5642942777846194, 0.5684017989949549]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[117, 12, 173, 132, 79, 48, 212]</t>
+          <t>[117, 12, 173, 132, 48, 212, 79]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[0.41492855327551825, 0.4906331663180268, 0.5094941398027188, 0.5526796332242571, 0.5528159653353787, 0.5539048483155706, 0.570004668379788]</t>
+          <t>[0.4298048854437044, 0.49450453910989334, 0.5115821808729377, 0.5642942777846194, 0.5684017989949549, 0.5703838265474865, 0.5728732340901548]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5366666365004872</v>
+        <v>0.5435672411889348</v>
       </c>
       <c r="W20" t="n">
         <v>3</v>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.468379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2287,34 +2287,34 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[11, 189, 183, 62, 172, 47, 195]</t>
+          <t>[11, 189, 183, 62, 47, 195, 172]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1, 0, 1]</t>
+          <t>[1, 1, 1, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[1.1951797157581603, 1.312394619241736, 1.3495343090381515, 1.5413601509825923, 1.622294913574774, 1.6435389385445929, 1.647604906549781]</t>
+          <t>[1.2082641097458762, 1.3219540469820086, 1.3708493536306872, 1.5759194831593248, 1.6720603547666912, 1.6946735133992439, 1.6991839062193002]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[11, 189, 183, 172, 195, 218, 144]</t>
+          <t>[11, 189, 183, 195, 172, 218, 144]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[1.1951797157581603, 1.312394619241736, 1.3495343090381515, 1.622294913574774, 1.647604906549781, 1.6949545947315252, 1.7529123304349818]</t>
+          <t>[1.2082641097458762, 1.3219540469820086, 1.3708493536306872, 1.6946735133992439, 1.6991839062193002, 1.7542015273183795, 1.8094425716881397]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.632916926059683</v>
+        <v>1.683366934082968</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.468379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2373,34 +2373,34 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[180, 184, 5, 183, 2, 68, 78]</t>
+          <t>[180, 184, 5, 183, 2, 78, 68]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 1, 1, 0, 1]</t>
+          <t>[0, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[1.3152132928643867, 1.3280296343066595, 1.337002669259708, 1.514517829083569, 1.5349098001699015, 1.5779944621095778, 1.6504378963961528]</t>
+          <t>[1.3362057888367698, 1.3453238067980031, 1.4157326070019844, 1.5167572906920663, 1.5637372696931777, 1.6533035365433908, 1.6756713366895468]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[184, 5, 183, 2, 78, 208, 0]</t>
+          <t>[184, 5, 183, 2, 78, 208, 72]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[1.3280296343066595, 1.337002669259708, 1.514517829083569, 1.5349098001699015, 1.6504378963961528, 1.6854048155740906, 1.704280795244925]</t>
+          <t>[1.3453238067980031, 1.4157326070019844, 1.5167572906920663, 1.5637372696931777, 1.6533035365433908, 1.7246611107525762, 1.7990293825151877]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>1.55645213113974</v>
+        <v>1.608520403118284</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.468379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[230, 192, 252, 133, 120, 218, 247]</t>
+          <t>[230, 252, 192, 133, 218, 247, 120]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2469,24 +2469,24 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.6050685899198321, 0.6651678118517115, 0.6776445358220735, 0.7853089822808305, 0.8377005181533059, 0.8442177790002489, 0.8603127364190305]</t>
+          <t>[0.6140279712250841, 0.6795245197738405, 0.7019417851786818, 0.78914694479563, 0.8464188213056317, 0.8662635332632745, 0.884486613361603]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[230, 192, 252, 133, 120, 218, 247]</t>
+          <t>[230, 252, 192, 133, 218, 247, 120]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[0.6050685899198321, 0.6651678118517115, 0.6776445358220735, 0.7853089822808305, 0.8377005181533059, 0.8442177790002489, 0.8603127364190305]</t>
+          <t>[0.6140279712250841, 0.6795245197738405, 0.7019417851786818, 0.78914694479563, 0.8464188213056317, 0.8662635332632745, 0.884486613361603]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8409591485767773</v>
+        <v>0.8563411772844531</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2495,7 +2495,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.469379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2545,34 +2545,34 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[233, 73, 43, 94, 232, 235, 143]</t>
+          <t>[233, 73, 43, 94, 232, 143, 235]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 1]</t>
+          <t>[1, 0, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.3177318165866338, 0.3448436932618146, 0.37353226951390994, 0.41492855327551825, 0.44060290201548663, 0.48155831906048946, 0.4850331267747474]</t>
+          <t>[0.3290674918494026, 0.35867942467063524, 0.3833159892365293, 0.4298048854437044, 0.45228359333075857, 0.4962254229732907, 0.5034048415791927]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[233, 94, 143, 212, 48, 79, 121]</t>
+          <t>[233, 94, 143, 212, 79, 48, 121]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[0.3177318165866338, 0.41492855327551825, 0.4850331267747474, 0.4949350617566031, 0.5119046302760444, 0.5411621547180041, 0.5497324961979542]</t>
+          <t>[0.3290674918494026, 0.4298048854437044, 0.4962254229732907, 0.5056711408954266, 0.542550055216679, 0.5458063824467221, 0.5540443692616148]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>0.461080610537988</v>
+        <v>0.4742545081520246</v>
       </c>
       <c r="W24" t="n">
         <v>3</v>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.469379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2645,24 +2645,24 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.3493443537121913, 0.3708281996103717, 0.4166264900685981, 0.47019900669057246, 0.6553274584481924, 0.6784856945594405, 0.713837732942408]</t>
+          <t>[0.3524788218583419, 0.3793438790232051, 0.4183266584079032, 0.47812745500997467, 0.6574347994928691, 0.6966270332913035, 0.7334860212605949]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[212, 192, 126, 143, 228, 117, 106]</t>
+          <t>[212, 192, 126, 143, 228, 117, 185]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[0.4166264900685981, 0.47019900669057246, 0.6784856945594405, 0.713837732942408, 0.7646381578803068, 0.825029906595439, 0.8377005181533059]</t>
+          <t>[0.4183266584079032, 0.47812745500997467, 0.6966270332913035, 0.7334860212605949, 0.7874731966815763, 0.8276902376241736, 0.839429266248877]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6669065765038165</v>
+        <v>0.6770309163920862</v>
       </c>
       <c r="W25" t="n">
         <v>5</v>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.469379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[175, 72, 12, 80, 132, 127, 79]</t>
+          <t>[175, 72, 12, 80, 127, 132, 79]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2735,24 +2735,24 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.3370491254786003, 0.3496393524685109, 0.3752789365153362, 0.39193938876656653, 0.4242214928183875, 0.4261343277901955, 0.4397790003085115]</t>
+          <t>[0.33768994654565676, 0.3747343937499917, 0.382965788249662, 0.40805108997054484, 0.427603834961373, 0.4351881615853863, 0.44824583318651307]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[72, 12, 80, 132, 127, 79, 117]</t>
+          <t>[72, 12, 80, 127, 132, 79, 117]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[0.3496393524685109, 0.3752789365153362, 0.39193938876656653, 0.4242214928183875, 0.4261343277901955, 0.4397790003085115, 0.5497324961979542]</t>
+          <t>[0.3747343937499917, 0.382965788249662, 0.40805108997054484, 0.427603834961373, 0.4351881615853863, 0.44824583318651307, 0.5540443692616148]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4251779103042915</v>
+        <v>0.4313959982733797</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.469379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[132, 214, 12, 72, 265, 127, 121]</t>
+          <t>[132, 214, 72, 12, 265, 127, 121]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2825,24 +2825,24 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.40214825195181914, 0.4522700956677568, 0.47709516412611364, 0.49499690774566685, 0.511835017063156, 0.5473444595113665, 0.5718692037096244]</t>
+          <t>[0.4128860529472997, 0.4586685435306861, 0.4964289475960245, 0.5000197802240262, 0.5171409073105397, 0.5744713262026391, 0.5892977000455543]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[132, 214, 12, 72, 265, 127, 121]</t>
+          <t>[132, 214, 72, 12, 265, 127, 121]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[0.40214825195181914, 0.4522700956677568, 0.47709516412611364, 0.49499690774566685, 0.511835017063156, 0.5473444595113665, 0.5718692037096244]</t>
+          <t>[0.4128860529472997, 0.4586685435306861, 0.4964289475960245, 0.5000197802240262, 0.5171409073105397, 0.5744713262026391, 0.5892977000455543]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5295897382872612</v>
+        <v>0.5458061167565894</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.469379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[212, 133, 97, 230, 44, 120, 17]</t>
+          <t>[212, 44, 97, 230, 133, 120, 17]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2911,24 +2911,24 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.6305296699119746, 0.6519408719772748, 0.6528492024892548, 0.6597257565729355, 0.6611370612176843, 0.6784856945594405, 0.6915580870716876]</t>
+          <t>[0.658599132962457, 0.6825734539849293, 0.6837407490636838, 0.6848812304188718, 0.6879595736844666, 0.6966270332913035, 0.7019994180770339]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[212, 133, 230, 44, 120, 17, 117]</t>
+          <t>[212, 44, 230, 133, 120, 17, 117]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[0.6305296699119746, 0.6519408719772748, 0.6597257565729355, 0.6611370612176843, 0.6784856945594405, 0.6915580870716876, 0.6933871785977858]</t>
+          <t>[0.658599132962457, 0.6825734539849293, 0.6848812304188718, 0.6879595736844666, 0.6966270332913035, 0.7019994180770339, 0.7035879325325439]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6698113778885624</v>
+        <v>0.6922933034878851</v>
       </c>
       <c r="W28" t="n">
         <v>2</v>
@@ -2937,11 +2937,11 @@
         <v>0.405083825348819</v>
       </c>
       <c r="Y28" t="n">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.469379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[175, 121, 122, 12, 132, 72, 80]</t>
+          <t>[175, 121, 12, 122, 132, 80, 72]</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3001,24 +3001,24 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.4032839267437384, 0.4261343277901955, 0.5473444595113665, 0.5498285356527424, 0.5954826129697919, 0.6177335449089536, 0.6222221027201054]</t>
+          <t>[0.4066552878841717, 0.427603834961373, 0.559135636071553, 0.5744713262026391, 0.6098746424186751, 0.6274498245417764, 0.638786812609061]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>[121, 122, 12, 132, 72, 80, 87]</t>
+          <t>[121, 12, 122, 132, 80, 72, 87]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[0.4261343277901955, 0.5473444595113665, 0.5498285356527424, 0.5954826129697919, 0.6177335449089536, 0.6222221027201054, 0.7481897533753419]</t>
+          <t>[0.427603834961373, 0.559135636071553, 0.5744713262026391, 0.6098746424186751, 0.6274498245417764, 0.638786812609061, 0.7590007195263645]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6066080789393727</v>
+        <v>0.6186622334802258</v>
       </c>
       <c r="W29" t="n">
         <v>3</v>
@@ -3031,7 +3031,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.469379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -3091,24 +3091,24 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.300772181670555, 0.30334463031246256, 0.45332560107096037, 0.5007733012806255, 0.5571828391907612, 0.5700280947684877, 0.6108608915571262]</t>
+          <t>[0.3068319462652802, 0.3158833290093558, 0.45538597269572884, 0.5107248067640306, 0.5638895923556346, 0.5712327772999813, 0.6137017002482641]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>[52, 48, 117, 212, 228, 244, 94]</t>
+          <t>[52, 48, 117, 212, 228, 94, 244]</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[0.300772181670555, 0.45332560107096037, 0.6429970882848778, 0.6784449328348183, 0.6855331996029372, 0.7495499914249298, 0.7516509963526107]</t>
+          <t>[0.3068319462652802, 0.45538597269572884, 0.6655300659030365, 0.6839636819869719, 0.691188568680648, 0.758181284060429, 0.7888385533791601]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>5</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5636054669796244</v>
+        <v>0.5675611848278079</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.469379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -3177,24 +3177,24 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.18277229686357888, 0.40214825195181914, 0.41067677606401365, 0.4242214928183875, 0.44425881910726417, 0.47396878522913527, 0.5526796332242571]</t>
+          <t>[0.19292323632052646, 0.4128860529472997, 0.4183821444859307, 0.4351881615853863, 0.4586685097622864, 0.47609316249561023, 0.5642942777846194]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>[12, 122, 121, 72, 79, 94, 127]</t>
+          <t>[12, 122, 121, 72, 79, 94, 117]</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[0.18277229686357888, 0.40214825195181914, 0.4242214928183875, 0.44425881910726417, 0.47396878522913527, 0.5526796332242571, 0.5954826129697919]</t>
+          <t>[0.19292323632052646, 0.4128860529472997, 0.4351881615853863, 0.4586685097622864, 0.47609316249561023, 0.5642942777846194, 0.6044910917849554]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4591138021681997</v>
+        <v>0.4673808361289483</v>
       </c>
       <c r="W31" t="n">
         <v>3</v>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.469379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[0.426844870949548, 0.4539118164541998, 0.46078203943864127, 0.5566143342043189, 0.5736934788946819, 0.605477221821555, 0.6384513065831899]</t>
+          <t>[0.44197788214035183, 0.46590297415373, 0.4662526404851085, 0.5592215566122907, 0.5875827307833502, 0.6063904136655448, 0.6404370692857475]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3277,14 +3277,14 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[0.426844870949548, 0.4539118164541998, 0.46078203943864127, 0.5566143342043189, 0.5736934788946819, 0.605477221821555, 0.6384513065831899]</t>
+          <t>[0.44197788214035183, 0.46590297415373, 0.4662526404851085, 0.5592215566122907, 0.5875827307833502, 0.6063904136655448, 0.6404370692857475]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>5</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5895853503581184</v>
+        <v>0.5969865722244475</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.470379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.19115600639738073, 0.5144145369135803, 0.5480468043661527, 0.605477221821555, 0.6697716629007902, 0.7076574140177881, 0.7080941265087539]</t>
+          <t>[0.19756895371127578, 0.5329711500581856, 0.5593934081746329, 0.6063904136655448, 0.7028295593909106, 0.710111082590473, 0.7204398743740563]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3363,14 +3363,14 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[0.19115600639738073, 0.5144145369135803, 0.5480468043661527, 0.605477221821555, 0.6697716629007902, 0.7076574140177881, 0.7080941265087539]</t>
+          <t>[0.19756895371127578, 0.5329711500581856, 0.5593934081746329, 0.6063904136655448, 0.7028295593909106, 0.710111082590473, 0.7204398743740563]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>5</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6887145384592892</v>
+        <v>0.7064703209906917</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.470379</t>
+          <t>2025-11-16T17:30:46.779975</t>
         </is>
       </c>
     </row>
@@ -3439,24 +3439,24 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.3255402906817581, 0.44925644928720576, 0.4850331267747474, 0.5330912512171628, 0.5681596678935169, 0.5735782381848898, 0.6104954317836502]</t>
+          <t>[0.34001829560092095, 0.4745794023283218, 0.4962254229732907, 0.5663422496559611, 0.5698110469304825, 0.5852621750318007, 0.6240596475118156]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>[265, 218, 117, 72, 44, 121, 212]</t>
+          <t>[265, 218, 117, 72, 44, 121, 122]</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[0.3255402906817581, 0.44925644928720576, 0.4850331267747474, 0.5681596678935169, 0.5735782381848898, 0.6104954317836502, 0.6183305436835028]</t>
+          <t>[0.34001829560092095, 0.4745794023283218, 0.4962254229732907, 0.5698110469304825, 0.5852621750318007, 0.6240596475118156, 0.6325324808878039]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5708689530392034</v>
+        <v>0.5775366109811415</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.471380</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -3529,24 +3529,24 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.19115600639738073, 0.4672411750844987, 0.49437139122891294, 0.5436220870288061, 0.5962237883802595, 0.6384513065831899, 0.6561214586808956]</t>
+          <t>[0.19756895371127578, 0.47496819826916825, 0.5047084318749009, 0.5711679237548372, 0.6201460552946018, 0.6404370692857475, 0.6675410977537132]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>[139, 2, 265, 233, 133, 17, 72]</t>
+          <t>[139, 2, 265, 233, 133, 17, 218]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[0.19115600639738073, 0.4672411750844987, 0.49437139122891294, 0.5436220870288061, 0.6384513065831899, 0.6561214586808956, 0.6648924926501938]</t>
+          <t>[0.19756895371127578, 0.47496819826916825, 0.5047084318749009, 0.5711679237548372, 0.6404370692857475, 0.6675410977537132, 0.6876075735168549]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>5</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6173375474817246</v>
+        <v>0.6302915622901746</v>
       </c>
       <c r="W35" t="n">
         <v>1</v>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.471380</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -3609,34 +3609,34 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[23, 195, 113, 26, 34, 137, 18]</t>
+          <t>[195, 23, 113, 34, 137, 26, 18]</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[0.9032771781847022, 0.9089207258395419, 1.0366749041253562, 1.122726700666571, 1.1236938261940563, 1.1349535949649323, 1.1568860884933378]</t>
+          <t>[0.9181304314287128, 0.9285342681431504, 1.0579955735045434, 1.1581080996747362, 1.1639304944238036, 1.1657143160160082, 1.1792476487820676]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>[195, 200, 11, 87, 204, 99, 189]</t>
+          <t>[195, 200, 11, 87, 204, 99, 252]</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[0.9089207258395419, 1.3096168843334115, 1.3275508386866792, 1.5908793720523329, 1.5990935014004302, 1.622294913574774, 1.629957840449113]</t>
+          <t>[0.9181304314287128, 1.3350509881208912, 1.3995616301348108, 1.6138328578287229, 1.6608070247088957, 1.6991839062193002, 1.7070581350360812]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>1.129323710579494</v>
+        <v>1.164822405219906</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.471380</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[79, 65, 93, 94, 175, 121, 80]</t>
+          <t>[79, 65, 93, 94, 175, 121, 12]</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3705,24 +3705,24 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.4070113027932198, 0.4726471420148391, 0.4829118325643496, 0.5094941398027188, 0.5939910816063874, 0.6370591790612015, 0.6802651643412381]</t>
+          <t>[0.42918053241565834, 0.48344327210122295, 0.48764516161175975, 0.5115821808729377, 0.5989142294953388, 0.6434734787789461, 0.6910858905335349]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>[79, 93, 94, 121, 80, 132, 12]</t>
+          <t>[79, 93, 94, 121, 12, 80, 132]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[0.4070113027932198, 0.4829118325643496, 0.5094941398027188, 0.6370591790612015, 0.6802651643412381, 0.6891138765861146, 0.6892987283992659]</t>
+          <t>[0.42918053241565834, 0.48764516161175975, 0.5115821808729377, 0.6434734787789461, 0.6910858905335349, 0.6920476884095672, 0.6980613034299721]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>5</v>
       </c>
       <c r="V37" t="n">
-        <v>0.6155251303337944</v>
+        <v>0.6211938541371425</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3731,7 +3731,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.472385</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[0.9426091053917415, 1.04451179021934, 1.1853450005512371, 1.1960576798710454, 1.415541094658351, 1.563934094868717, 1.580391598030535]</t>
+          <t>[0.971450401545699, 1.074640074031811, 1.186952630834861, 1.1979482812998925, 1.4296198762517993, 1.5690778551650242, 1.5873346497904075]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[0.9426091053917415, 1.1853450005512371, 1.1960576798710454, 1.415541094658351, 1.563934094868717, 1.580391598030535, 1.6410228118581558]</t>
+          <t>[0.971450401545699, 1.186952630834861, 1.1979482812998925, 1.4296198762517993, 1.5690778551650242, 1.5873346497904075, 1.6544038847990568]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.489737594763534</v>
+        <v>1.499348865708412</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.472385</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -3867,34 +3867,34 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[78, 2, 139, 144, 186, 218, 133]</t>
+          <t>[78, 2, 186, 139, 144, 218, 133]</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 0, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[0.5587223573308889, 0.791039377807072, 0.843654742228161, 0.8603664750912501, 0.861777183453274, 0.931892320846779, 0.9893290802630301]</t>
+          <t>[0.5603953567589891, 0.8447299750636207, 0.8847807359492844, 0.8880238026393963, 0.9113645928993578, 0.9812805851581737, 1.024094707256906]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>[78, 2, 139, 144, 218, 133, 265]</t>
+          <t>[78, 2, 139, 144, 218, 133, 184]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[0.5587223573308889, 0.791039377807072, 0.843654742228161, 0.8603664750912501, 0.931892320846779, 0.9893290802630301, 1.0311628714246286]</t>
+          <t>[0.5603953567589891, 0.8447299750636207, 0.8880238026393963, 0.9113645928993578, 0.9812805851581737, 1.024094707256906, 1.0855335794899321]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8968347521500265</v>
+        <v>0.9463225890287658</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.472385</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.7606850577828326, 0.8088749738207938, 0.8834346421851855, 0.8877265901470622, 0.9390618903976925, 0.9610487937348541, 0.9826547415496008]</t>
+          <t>[0.765611192163851, 0.8362680582799068, 0.9132802538826336, 0.9246073651965244, 0.9735771721574329, 0.9821824202652099, 1.0045195499917943]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -3973,14 +3973,14 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[0.7606850577828326, 0.8088749738207938, 0.8877265901470622, 0.9390618903976925, 0.9610487937348541, 0.9826547415496008, 1.053144371590791]</t>
+          <t>[0.765611192163851, 0.8362680582799068, 0.9246073651965244, 0.9735771721574329, 0.9821824202652099, 1.0045195499917943, 1.0831903338783457]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9500553420662733</v>
+        <v>0.9778797962113214</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.472385</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[73, 117, 212, 235, 12, 94, 121]</t>
+          <t>[73, 117, 212, 235, 12, 121, 94]</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -4049,24 +4049,24 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[0.5328955098782735, 0.6052035570839494, 0.616322926874974, 0.6168998563027631, 0.6400723224750732, 0.679899545091819, 0.6800458708267693]</t>
+          <t>[0.5342257942124597, 0.6083093566579445, 0.6185631202924585, 0.6236524444886162, 0.6405267864348283, 0.6826793710675878, 0.6833905965977358]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>[117, 212, 12, 94, 121, 48, 143]</t>
+          <t>[117, 212, 12, 121, 94, 48, 132]</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[0.6052035570839494, 0.616322926874974, 0.6400723224750732, 0.679899545091819, 0.6800458708267693, 0.6915129815073675, 0.7018485358630068]</t>
+          <t>[0.6083093566579445, 0.6185631202924585, 0.6405267864348283, 0.6826793710675878, 0.6833905965977358, 0.7038272496795165, 0.7187529981026506]</t>
         </is>
       </c>
       <c r="U41" t="n">
         <v>5</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6599859337834462</v>
+        <v>0.6616030787512081</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.473383</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.8235094669300224, 0.9050961123304854, 1.0026447861907386, 1.0388968315459377, 1.1830498478147624, 1.2578377942645116, 1.312394619241736]</t>
+          <t>[0.8466337409387247, 0.9382446961642759, 1.0488252146054582, 1.0918060201554602, 1.2141778546631932, 1.3095686710797223, 1.3219540469820086]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4145,14 +4145,14 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[0.8235094669300224, 0.9050961123304854, 1.312394619241736, 1.439746259402487, 1.495035251975794, 1.5633463379229817, 1.5822452488364709]</t>
+          <t>[0.8466337409387247, 0.9382446961642759, 1.3219540469820086, 1.5177117159875857, 1.5682620231631885, 1.6449807285617135, 1.6759845023463882]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>5</v>
       </c>
       <c r="V42" t="n">
-        <v>1.220443821039637</v>
+        <v>1.261873262871458</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.473383</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4211,17 +4211,17 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[120, 106, 230, 97, 123, 212, 126]</t>
+          <t>[120, 106, 230, 97, 212, 123, 126]</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.47019900669057246, 0.6651678118517115, 0.7693838751920083, 0.8065415898682032, 0.811528985859164, 0.8118848671453419, 0.89447023192938]</t>
+          <t>[0.47812745500997467, 0.7019417851786818, 0.8111790931817326, 0.8175012602835887, 0.8201809946795475, 0.8279511810954874, 0.8976175058075762]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4231,14 +4231,14 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[0.47019900669057246, 0.6651678118517115, 0.7693838751920083, 0.8118848671453419, 0.89447023192938, 0.9196266504468654, 0.9575060426380428]</t>
+          <t>[0.47812745500997467, 0.7019417851786818, 0.8111790931817326, 0.8201809946795475, 0.8976175058075762, 0.9248580903204343, 0.9939560755155433]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>5</v>
       </c>
       <c r="V43" t="n">
-        <v>0.811706926502253</v>
+        <v>0.8240660878875175</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.473383</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K44" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
@@ -4307,24 +4307,24 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[0.9089207258395419, 0.9259552402925781, 1.2117067856418309, 1.3413421873546258, 1.3416429433123038, 1.3704053006498502, 1.411798661575995]</t>
+          <t>[0.9181304314287128, 0.9814860883963605, 1.2341348317921002, 1.3743726908715235, 1.3826679515730542, 1.401241514755124, 1.4431576009114175]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>[172, 11, 189, 200, 204, 99, 247]</t>
+          <t>[172, 11, 200, 189, 204, 247, 99]</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[0.9089207258395419, 0.9259552402925781, 1.439746259402487, 1.4517798484698423, 1.57156501312865, 1.647604906549781, 1.654298906363991]</t>
+          <t>[0.9181304314287128, 0.9814860883963605, 1.4857013337515985, 1.5177117159875857, 1.617935230337548, 1.692483229107535, 1.6946735133992439]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.356024121981077</v>
+        <v>1.391954733164089</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4333,7 +4333,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.474381</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4383,17 +4383,17 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[0, 175, 37, 127, 16, 178, 155]</t>
+          <t>[0, 175, 127, 37, 178, 16, 70]</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.6387641959414919, 0.9954171446370441, 1.0743530770683147, 1.0842135456082187, 1.1402445731212643, 1.1491707301225156, 1.2013034450591198]</t>
+          <t>[0.6404309321984378, 0.9995339793160453, 1.0858165923030816, 1.0877762348567592, 1.155952568575654, 1.1623682899852883, 1.2271716966077044]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4403,14 +4403,14 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[0.6387641959414919, 1.0842135456082187, 1.2653452789599824, 1.2967317839748311, 1.3148908217228072, 1.3231578765392262, 1.3404113029978348]</t>
+          <t>[0.6404309321984378, 1.0858165923030816, 1.2768877244792216, 1.299372833731694, 1.3190959573952314, 1.3332644367277169, 1.3500441141345716]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>1.14470765162189</v>
+        <v>1.159160429280471</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4419,7 +4419,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.474510</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[55, 264, 150, 25, 237, 141, 153]</t>
+          <t>[55, 264, 150, 25, 237, 153, 141]</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4479,24 +4479,24 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[0.34704442425232157, 0.3593497604850924, 0.3904925509665907, 0.445679646267563, 0.4601009190663784, 0.47189776860639926, 0.47667520376159217]</t>
+          <t>[0.3607957552460981, 0.3681309920626425, 0.40256777134442157, 0.4618987474621375, 0.4754529228823048, 0.4823679577014703, 0.4932843917097161]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>[218, 87, 143, 106, 204, 247, 265]</t>
+          <t>[218, 87, 143, 106, 247, 204, 265]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[1.0087935022705987, 1.0467763233944603, 1.1192799875185335, 1.126673030190424, 1.1286294571854771, 1.1545013956802495, 1.2016398340054446]</t>
+          <t>[1.02730888757368, 1.0725808805586583, 1.1373025572835467, 1.152546640223148, 1.1705414917582162, 1.1809012286208487, 1.221936120939305]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4659993438363889</v>
+        <v>0.4789104402918876</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4505,7 +4505,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.475515</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[201, 96, 194, 62, 88, 25, 154]</t>
+          <t>[201, 96, 194, 62, 88, 40, 154]</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4565,24 +4565,24 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.3978820310339181, 0.6983622174023782, 0.6993587281379978, 0.7189381520928867, 0.8109884319368614, 0.839021710737751, 0.8397316084287707]</t>
+          <t>[0.41335534715969197, 0.7120121754045903, 0.7278738063138257, 0.731529999486306, 0.830318660718897, 0.8530314470140158, 0.8667958357660348]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>[189, 200, 11, 252, 106, 195, 247]</t>
+          <t>[189, 200, 11, 252, 106, 247, 195]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[0.9050961123304854, 1.1286294571854771, 1.1993060458901301, 1.4858738032106755, 1.5260897290746545, 1.57156501312865, 1.5860647498557974]</t>
+          <t>[0.9382446961642759, 1.1809012286208487, 1.2240942780506507, 1.529608428820615, 1.5736822122890644, 1.6117097253328765, 1.617935230337548]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>0.8250050713373063</v>
+        <v>0.8416750538664564</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4591,7 +4591,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.476514</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4651,24 +4651,24 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[0.6843351028833651, 0.7076574140177881, 0.7800591901816304, 0.8171860865955285, 0.8263600423088694, 0.8412365183531852, 0.9610487937348541]</t>
+          <t>[0.688106682540607, 0.710111082590473, 0.7938885910397881, 0.8413378589226892, 0.8615586699981741, 0.8634435121523507, 0.9821824202652099]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>[144, 139, 2, 79, 233, 184, 72]</t>
+          <t>[144, 139, 2, 79, 233, 184, 226]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[0.6843351028833651, 0.7076574140177881, 0.7800591901816304, 0.8263600423088694, 0.8412365183531852, 0.9610487937348541, 1.000732223426086]</t>
+          <t>[0.688106682540607, 0.710111082590473, 0.7938885910397881, 0.8615586699981741, 0.8634435121523507, 0.9821824202652099, 1.0176368738286712]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8337982803310273</v>
+        <v>0.8625010910752624</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4677,7 +4677,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.476514</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[0.5337835415608952, 0.630840775788682, 0.653853904099133, 0.6710357058744811, 0.6918642887756976, 0.7134382723982694, 0.7838350960653794]</t>
+          <t>[0.5425353231907916, 0.6311903647734708, 0.6763937777570282, 0.6846016513489056, 0.6969231173694684, 0.7234340213355976, 0.7911561932119732]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -4747,14 +4747,14 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>[0.5337835415608952, 0.630840775788682, 0.7134382723982694, 0.7838350960653794, 0.9390618903976925, 0.9475331886227933, 0.9793652761263791]</t>
+          <t>[0.5425353231907916, 0.6311903647734708, 0.7234340213355976, 0.7911561932119732, 0.9735771721574329, 0.979981664923902, 0.9868278763704473]</t>
         </is>
       </c>
       <c r="U49" t="n">
         <v>5</v>
       </c>
       <c r="V49" t="n">
-        <v>0.7026512805869836</v>
+        <v>0.7101785693525331</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4763,7 +4763,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.476514</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[53, 126, 17, 133, 226, 144, 139]</t>
+          <t>[53, 126, 17, 133, 144, 139, 226]</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4823,24 +4823,24 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[0.7812625915442334, 0.7880411567528586, 0.8008417517510675, 0.8791051000607641, 0.8853337208428553, 0.8948503806578592, 0.902439585248186]</t>
+          <t>[0.7943349714766625, 0.8162798283873167, 0.8273520957500429, 0.8863426856377493, 0.9017487313201756, 0.9060002173570764, 0.9150600455495205]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>[53, 126, 17, 133, 226, 144, 139]</t>
+          <t>[53, 126, 17, 133, 144, 139, 226]</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>[0.7812625915442334, 0.7880411567528586, 0.8008417517510675, 0.8791051000607641, 0.8853337208428553, 0.8948503806578592, 0.902439585248186]</t>
+          <t>[0.7943349714766625, 0.8162798283873167, 0.8273520957500429, 0.8863426856377493, 0.9017487313201756, 0.9060002173570764, 0.9150600455495205]</t>
         </is>
       </c>
       <c r="U50" t="n">
         <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>0.8900920507503572</v>
+        <v>0.903874474338626</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -4849,7 +4849,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.476514</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[0.31314810459945935, 0.38716724561704224, 0.39517583229122516, 0.4166264900685981, 0.47853636685918244, 0.4949350617566031, 0.5158762938484103]</t>
+          <t>[0.3165340624192976, 0.3939440061621531, 0.396968059151611, 0.4183266584079032, 0.48874534711789264, 0.5056711408954266, 0.5285094283492562]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -4919,14 +4919,14 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[0.4166264900685981, 0.4949350617566031, 0.5158762938484103, 0.570004668379788, 0.5827742546441335, 0.6104328568560324, 0.616322926874974]</t>
+          <t>[0.4183266584079032, 0.5056711408954266, 0.5285094283492562, 0.5703838265474865, 0.589451538054015, 0.6126286989625115, 0.6185631202924585]</t>
         </is>
       </c>
       <c r="U51" t="n">
         <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4867357143078928</v>
+        <v>0.4972082440066596</v>
       </c>
       <c r="W51" t="n">
         <v>1</v>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.477514</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[122, 132, 12, 265, 127, 143, 72]</t>
+          <t>[122, 132, 12, 265, 143, 127, 72]</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -4999,24 +4999,24 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[0.4522700956677568, 0.6565069825338506, 0.7148385205024039, 0.792126311233567, 0.8921778683529974, 0.9093140984493321, 0.9148233158172774]</t>
+          <t>[0.4586685435306861, 0.6648289321492056, 0.7337668677994603, 0.7988965191324714, 0.9171592069728961, 0.920285950926564, 0.9218617090123212]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>[122, 132, 12, 265, 127, 143, 72]</t>
+          <t>[122, 132, 12, 265, 143, 127, 72]</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>[0.4522700956677568, 0.6565069825338506, 0.7148385205024039, 0.792126311233567, 0.8921778683529974, 0.9093140984493321, 0.9148233158172774]</t>
+          <t>[0.4586685435306861, 0.6648289321492056, 0.7337668677994603, 0.7988965191324714, 0.9171592069728961, 0.920285950926564, 0.9218617090123212]</t>
         </is>
       </c>
       <c r="U52" t="n">
         <v>5</v>
       </c>
       <c r="V52" t="n">
-        <v>0.9007459834011647</v>
+        <v>0.91872257894973</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.477514</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[265, 44, 143, 133, 144, 247, 17]</t>
+          <t>[44, 265, 133, 143, 144, 247, 17]</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5085,24 +5085,24 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[0.38715182616312704, 0.38838433182150356, 0.44925644928720576, 0.4539118164541998, 0.6798033574158324, 0.6955644693824967, 0.6979605226257983]</t>
+          <t>[0.39095401051573214, 0.3952863319699243, 0.46590297415373, 0.4745794023283218, 0.6876075735168549, 0.6971440392653372, 0.7050565992659034]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>[265, 44, 143, 133, 144, 247, 17]</t>
+          <t>[44, 265, 133, 143, 144, 247, 17]</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>[0.38715182616312704, 0.38838433182150356, 0.44925644928720576, 0.4539118164541998, 0.6798033574158324, 0.6955644693824967, 0.6979605226257983]</t>
+          <t>[0.39095401051573214, 0.3952863319699243, 0.46590297415373, 0.4745794023283218, 0.6876075735168549, 0.6971440392653372, 0.7050565992659034]</t>
         </is>
       </c>
       <c r="U53" t="n">
         <v>5</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6876839133991646</v>
+        <v>0.6923758063910961</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
@@ -5111,7 +5111,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.478525</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[17, 233, 232, 244, 209, 117, 43]</t>
+          <t>[17, 233, 232, 209, 244, 117, 43]</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5171,24 +5171,24 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[0.21286173804405556, 0.34296891237613225, 0.36449671454209764, 0.531608783136456, 0.5337835415608952, 0.5956796300272117, 0.6011385508007127]</t>
+          <t>[0.21443304078111106, 0.3461611340488398, 0.3653168406770823, 0.5425353231907916, 0.5445391794814306, 0.6088107110332943, 0.6372052907809359]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>[17, 233, 244, 209, 117, 44, 144]</t>
+          <t>[17, 233, 209, 244, 117, 44, 2]</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>[0.21286173804405556, 0.34296891237613225, 0.531608783136456, 0.5337835415608952, 0.5956796300272117, 0.6355550426676103, 0.7261925403951454]</t>
+          <t>[0.21443304078111106, 0.3461611340488398, 0.5425353231907916, 0.5445391794814306, 0.6088107110332943, 0.6400066382443761, 0.7373122263029368]</t>
         </is>
       </c>
       <c r="U54" t="n">
         <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>0.5647315857940535</v>
+        <v>0.5766749452573625</v>
       </c>
       <c r="W54" t="n">
         <v>2</v>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.478525</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[0.33448494520284394, 0.4040372859588888, 0.4707701001400842, 0.49545337182457866, 0.5254491134421377, 0.5298811627972123, 0.5780993205372317]</t>
+          <t>[0.3441411080174952, 0.4193002108376557, 0.4761108863753461, 0.5024139570367484, 0.5325482073352571, 0.5471136191033614, 0.5951465310870481]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5271,14 +5271,14 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>[0.4707701001400842, 0.640203047878593, 0.6855331996029372, 0.7077805252278603, 0.7291085101463568, 0.7646381578803068, 0.7815709793642637]</t>
+          <t>[0.4761108863753461, 0.6617826919186229, 0.691188568680648, 0.7120782987110547, 0.7511474090696254, 0.7874731966815763, 0.8103828987478885]</t>
         </is>
       </c>
       <c r="U55" t="n">
         <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5276651381196751</v>
+        <v>0.5398309132193093</v>
       </c>
       <c r="W55" t="n">
         <v>3</v>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.478525</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[133, 106, 126, 192, 44, 218, 265]</t>
+          <t>[133, 106, 126, 44, 192, 218, 265]</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5351,24 +5351,24 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[0.46078203943864127, 0.6050685899198321, 0.6597257565729355, 0.7693838751920083, 0.797667967003796, 0.8096221373548131, 0.8251950389081546]</t>
+          <t>[0.4662526404851085, 0.6140279712250841, 0.6848812304188718, 0.8109482905877532, 0.8111790931817326, 0.8245772149154801, 0.8370751172254997]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>[133, 106, 126, 192, 44, 218, 265]</t>
+          <t>[133, 106, 126, 44, 192, 218, 265]</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>[0.46078203943864127, 0.6050685899198321, 0.6597257565729355, 0.7693838751920083, 0.797667967003796, 0.8096221373548131, 0.8251950389081546]</t>
+          <t>[0.4662526404851085, 0.6140279712250841, 0.6848812304188718, 0.8109482905877532, 0.8111790931817326, 0.8245772149154801, 0.8370751172254997]</t>
         </is>
       </c>
       <c r="U56" t="n">
         <v>5</v>
       </c>
       <c r="V56" t="n">
-        <v>0.8036450521793046</v>
+        <v>0.8178781540486064</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -5377,7 +5377,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.478525</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[232, 117, 226, 17, 43, 144, 79]</t>
+          <t>[232, 117, 226, 17, 43, 79, 144]</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5437,24 +5437,24 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[0.20055978101723154, 0.3177318165866338, 0.34296891237613225, 0.3709974238219604, 0.48870655221188736, 0.5436220870288061, 0.5630099132733398]</t>
+          <t>[0.20304438123983845, 0.3290674918494026, 0.3461611340488398, 0.37657968023864064, 0.5179137050231546, 0.5652713170144583, 0.5711679237548372]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>[117, 226, 17, 144, 79, 2, 94]</t>
+          <t>[117, 226, 17, 79, 144, 2, 94]</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>[0.3177318165866338, 0.34296891237613225, 0.3709974238219604, 0.5436220870288061, 0.5630099132733398, 0.5943176150122738, 0.6074489560139795]</t>
+          <t>[0.3290674918494026, 0.3461611340488398, 0.37657968023864064, 0.5652713170144583, 0.5711679237548372, 0.6176497476569909, 0.6369076215994106]</t>
         </is>
       </c>
       <c r="U57" t="n">
         <v>5</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5161643196203467</v>
+        <v>0.5415925110188065</v>
       </c>
       <c r="W57" t="n">
         <v>3</v>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.479565</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[219, 17, 226, 211, 44, 209, 232]</t>
+          <t>[219, 17, 226, 211, 209, 44, 232]</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -5527,24 +5527,24 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[0.461634960511693, 0.5257178756940794, 0.531608783136456, 0.5664120265533512, 0.6096387045696878, 0.630840775788682, 0.6541756211389272]</t>
+          <t>[0.47268265765861894, 0.5441757905247957, 0.5445391794814306, 0.5994042617493563, 0.6311903647734708, 0.631573533497182, 0.6624712540055496]</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>[17, 226, 44, 209, 233, 117, 131]</t>
+          <t>[17, 226, 209, 44, 233, 117, 143]</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>[0.5257178756940794, 0.531608783136456, 0.6096387045696878, 0.630840775788682, 0.665466016309373, 0.7018691761430401, 0.7495499914249298]</t>
+          <t>[0.5441757905247957, 0.5445391794814306, 0.6311903647734708, 0.631573533497182, 0.6774662700661319, 0.7139910995384647, 0.7593445165581392]</t>
         </is>
       </c>
       <c r="U58" t="n">
         <v>5</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6202397401791849</v>
+        <v>0.6313819491353264</v>
       </c>
       <c r="W58" t="n">
         <v>3</v>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.479565</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -5607,34 +5607,34 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[44, 53, 193, 242, 114, 218, 133]</t>
+          <t>[44, 53, 193, 242, 218, 114, 133]</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 1, 1]</t>
+          <t>[1, 1, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[0.5582900753595698, 0.5800420025624597, 0.584939587507794, 0.6584829768617618, 0.692663068434454, 0.6955644693824967, 0.7145926397762693]</t>
+          <t>[0.5657425911008691, 0.5919153154566646, 0.6078585757245677, 0.6697150610460071, 0.6971440392653372, 0.707331187640878, 0.7240994036383327]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>[44, 53, 218, 133, 106, 244, 17]</t>
+          <t>[44, 53, 218, 133, 106, 17, 230]</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>[0.5582900753595698, 0.5800420025624597, 0.6955644693824967, 0.7145926397762693, 0.8603127364190305, 0.9432699498127094, 0.9481781108499746]</t>
+          <t>[0.5657425911008691, 0.5919153154566646, 0.6971440392653372, 0.7240994036383327, 0.8662635332632745, 0.9593977171596306, 0.9662673372395373]</t>
         </is>
       </c>
       <c r="U59" t="n">
         <v>5</v>
       </c>
       <c r="V59" t="n">
-        <v>0.6941137689084753</v>
+        <v>0.7022376134531076</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -5643,7 +5643,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.479565</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -5693,7 +5693,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[106, 182, 192, 62, 230, 214, 120]</t>
+          <t>[106, 182, 192, 62, 230, 214, 133]</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -5703,24 +5703,24 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[0.6776445358220735, 0.9426091053917415, 0.9575060426380428, 0.9768333478133993, 1.0910715494181273, 1.153743930664675, 1.3038853647278752]</t>
+          <t>[0.6795245197738405, 0.971450401545699, 0.9939560755155433, 1.0032414089083304, 1.0940184109181272, 1.1663647566011117, 1.3383365142726742]</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>[106, 182, 192, 230, 214, 120, 133]</t>
+          <t>[106, 182, 192, 230, 214, 133, 120]</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>[0.6776445358220735, 0.9426091053917415, 0.9575060426380428, 1.0910715494181273, 1.153743930664675, 1.3038853647278752, 1.3380355246495848]</t>
+          <t>[0.6795245197738405, 0.971450401545699, 0.9939560755155433, 1.0940184109181272, 1.1663647566011117, 1.3383365142726742, 1.3453080485469922]</t>
         </is>
       </c>
       <c r="U60" t="n">
         <v>5</v>
       </c>
       <c r="V60" t="n">
-        <v>1.122407740041401</v>
+        <v>1.130191583759619</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -5729,7 +5729,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.479565</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -5779,34 +5779,34 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>[42, 15, 224, 164, 13, 194, 172]</t>
+          <t>[42, 15, 224, 164, 172, 13, 266]</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[1.0592190030198085, 1.7677311898814185, 2.266825139449731, 2.281206895468299, 2.546720614813414, 2.5521550724405087, 2.5589419117001655]</t>
+          <t>[1.0730575598008198, 1.7916207047683483, 2.283094849943119, 2.3130534459016108, 2.5663054700260814, 2.5683968301285045, 2.592087322359432]</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>[172, 195, 252, 204, 182, 106, 189]</t>
+          <t>[172, 195, 252, 204, 182, 106, 192]</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>[2.5589419117001655, 2.68455720444761, 2.7666995118698123, 2.864266155277007, 2.9178908709633653, 3.0048907342125535, 3.0505120894095747]</t>
+          <t>[2.5663054700260814, 2.7037856897391905, 2.8062586949506265, 2.9267423995391004, 2.949109411970761, 3.0355882864898738, 3.1264533420670033]</t>
         </is>
       </c>
       <c r="U61" t="n">
         <v>5</v>
       </c>
       <c r="V61" t="n">
-        <v>2.549437843626961</v>
+        <v>2.567351150077293</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
@@ -5815,7 +5815,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.481036</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[143, 218, 72, 144, 122, 139, 117]</t>
+          <t>[143, 218, 72, 144, 122, 139, 133]</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -5875,24 +5875,24 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>[0.3255402906817581, 0.38715182616312704, 0.46809466903819835, 0.49437139122891294, 0.511835017063156, 0.5144145369135803, 0.5694241184505194]</t>
+          <t>[0.34001829560092095, 0.3952863319699243, 0.474713081092318, 0.5047084318749009, 0.5171409073105397, 0.5329711500581856, 0.5875827307833502]</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>[143, 218, 72, 144, 122, 139, 117]</t>
+          <t>[143, 218, 72, 144, 122, 139, 133]</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>[0.3255402906817581, 0.38715182616312704, 0.46809466903819835, 0.49437139122891294, 0.511835017063156, 0.5144145369135803, 0.5694241184505194]</t>
+          <t>[0.34001829560092095, 0.3952863319699243, 0.474713081092318, 0.5047084318749009, 0.5171409073105397, 0.5329711500581856, 0.5875827307833502]</t>
         </is>
       </c>
       <c r="U62" t="n">
         <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5131247769883682</v>
+        <v>0.5250560286843626</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -5901,7 +5901,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.481036</t>
+          <t>2025-11-16T17:30:46.795607</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[0.7422574101492436, 0.7732485652570947, 0.8998661855489031, 1.0386808153787008, 1.0982052902303108, 1.139949726543959, 1.1863179013416234]</t>
+          <t>[0.7708517048266251, 0.8045006592821974, 0.9059481984309936, 1.074716927776539, 1.1037367922733565, 1.1536863738154974, 1.2132812307066099]</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -5971,14 +5971,14 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>[0.7422574101492436, 0.8998661855489031, 1.0982052902303108, 1.139949726543959, 1.2756064737789163, 1.3112690813871444, 1.4011366880334848]</t>
+          <t>[0.7708517048266251, 0.9059481984309936, 1.1037367922733565, 1.1536863738154974, 1.3095069797473107, 1.317561124476872, 1.4105505159370566]</t>
         </is>
       </c>
       <c r="U63" t="n">
         <v>5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.119077508387135</v>
+        <v>1.128711583044427</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -5987,7 +5987,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.533028</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6037,17 +6037,17 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>[220, 127, 100, 19, 64, 168, 175]</t>
+          <t>[220, 127, 100, 64, 19, 168, 175]</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 1, 0, 1]</t>
+          <t>[0, 0, 1, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[0.7164177156485045, 0.8286716441921085, 0.9622494161147557, 1.0267481082941194, 1.0313945149682626, 1.0360782237618955, 1.0458231238956088]</t>
+          <t>[0.7265490239653078, 0.852155144475559, 0.9630673270770829, 1.033449075381483, 1.0390247263901524, 1.0658990527064767, 1.0688235815969118]</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6057,14 +6057,14 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>[0.9622494161147557, 1.0313945149682626, 1.0458231238956088, 1.2157760556023487, 1.2925203601703799, 1.371893336989678, 1.4139212242797308]</t>
+          <t>[0.9630673270770829, 1.033449075381483, 1.0688235815969118, 1.259855900814455, 1.2996609990705126, 1.375897092645064, 1.419228437721791]</t>
         </is>
       </c>
       <c r="U64" t="n">
         <v>5</v>
       </c>
       <c r="V64" t="n">
-        <v>1.033736369365079</v>
+        <v>1.052461889548315</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
@@ -6073,7 +6073,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.534031</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[0.9055261089639066, 1.0592190030198085, 1.518606779802457, 1.6370175386329142, 1.741349760824622, 1.8060437876825899, 1.9011911983515015]</t>
+          <t>[0.9139193592729731, 1.0730575598008198, 1.5342735441341913, 1.640733493028125, 1.75193310722805, 1.8289410222787377, 1.931245732568191]</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -6143,14 +6143,14 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>[2.758255299388601, 2.941545098682226, 3.066070857209396, 3.1518493796352876, 3.1902017223671484, 3.33181161432459, 3.3824017464565523]</t>
+          <t>[2.78533117320898, 2.9647399373984986, 3.0927512026295214, 3.1686591582579196, 3.209929464222558, 3.3520611949292847, 3.393630244806118]</t>
         </is>
       </c>
       <c r="U65" t="n">
         <v>5</v>
       </c>
       <c r="V65" t="n">
-        <v>1.773696774253606</v>
+        <v>1.790437064753394</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -6159,7 +6159,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.534031</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>[131, 52, 117, 48, 233, 73, 94]</t>
+          <t>[131, 52, 117, 48, 73, 233, 94]</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>[0.30334463031246256, 0.3607952825408134, 0.37353226951390994, 0.4298268421551355, 0.48870655221188736, 0.5009409867548746, 0.5206536397767173]</t>
+          <t>[0.3158833290093558, 0.37591044889509745, 0.3833159892365293, 0.4440921218233171, 0.5015215843778575, 0.5179137050231546, 0.5228402045932503]</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6229,14 +6229,14 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>[0.552236412561636, 0.5654929813841216, 0.6103003018229257, 0.6700354734286343, 0.6840114061582778, 0.7091531567244759, 0.7401854695494643]</t>
+          <t>[0.5584192820399272, 0.578823751231119, 0.6383988569412044, 0.6702645400352867, 0.6967840847892196, 0.7298347190209034, 0.7420277265700203]</t>
         </is>
       </c>
       <c r="U66" t="n">
         <v>5</v>
       </c>
       <c r="V66" t="n">
-        <v>0.494823769483381</v>
+        <v>0.5097176447005061</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
@@ -6245,7 +6245,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.534031</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6305,7 +6305,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[0.37316390337226146, 0.422334107389828, 0.5254491134421377, 0.5908926395789481, 0.6301008378490408, 0.7014464668264733, 0.7273490181230837]</t>
+          <t>[0.3814654197736323, 0.4440780569626893, 0.5325482073352571, 0.598799546429105, 0.6514409691975604, 0.7025361156754487, 0.7446496390789756]</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6315,14 +6315,14 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>[0.37316390337226146, 0.5908926395789481, 0.6301008378490408, 0.7014464668264733, 0.7340848855420055, 0.7968713316061269, 0.8158860583675217]</t>
+          <t>[0.3814654197736323, 0.598799546429105, 0.6514409691975604, 0.7025361156754487, 0.759466889527894, 0.7972644670129602, 0.8254463526654006]</t>
         </is>
       </c>
       <c r="U67" t="n">
         <v>5</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6657736523377571</v>
+        <v>0.6769885424365045</v>
       </c>
       <c r="W67" t="n">
         <v>3</v>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.534031</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>[0.41039769556681854, 0.4726471420148391, 0.6413009799452211, 0.6919113614620077, 0.7422574101492436, 0.7858094635207684, 0.7994492902358717]</t>
+          <t>[0.4195896945632307, 0.48344327210122295, 0.650674465813613, 0.7139383231601071, 0.7708517048266251, 0.7905069901091614, 0.8030326487127786]</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6405,14 +6405,14 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>[0.6919113614620077, 0.7422574101492436, 0.7994492902358717, 0.901035976786941, 0.9321557945174042, 1.0277071200423282, 1.034006674726583]</t>
+          <t>[0.7139383231601071, 0.7708517048266251, 0.8030326487127786, 0.9277866594475972, 0.9418559831073474, 1.043024642891857, 1.0544588209298291]</t>
         </is>
       </c>
       <c r="U68" t="n">
         <v>5</v>
       </c>
       <c r="V68" t="n">
-        <v>0.764033436835006</v>
+        <v>0.7806793474678932</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
@@ -6421,7 +6421,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.534031</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6481,24 +6481,24 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[0.6291272996857695, 0.6305525447391075, 0.6460361817908314, 0.6500320734044271, 0.6913640966516134, 0.693939793997454, 0.7503163228703066]</t>
+          <t>[0.6310482680132533, 0.6403187830901854, 0.6465338628681111, 0.6644548038906075, 0.70009470509239, 0.7012363874943977, 0.7635976569296394]</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>[175, 235, 232, 100, 37, 64, 123]</t>
+          <t>[175, 235, 232, 100, 37, 123, 64]</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>[0.6305525447391075, 1.0730860086672236, 1.1072352478339895, 1.1374588869666917, 1.2157760556023487, 1.2289725251392258, 1.2472293077995962]</t>
+          <t>[0.6403187830901854, 1.0930622545880524, 1.1078016500893546, 1.1884878424004905, 1.259855900814455, 1.2607693874175385, 1.2834934118199253]</t>
         </is>
       </c>
       <c r="U69" t="n">
         <v>5</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6926519453245337</v>
+        <v>0.7006655462933938</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
@@ -6507,7 +6507,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.535029</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>[92, 209, 238, 226, 131, 148, 43]</t>
+          <t>[92, 209, 238, 226, 131, 43, 148]</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -6567,24 +6567,24 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[0.6619225803462327, 0.6710357058744811, 0.7013201957899013, 0.804877607499701, 0.8146935694700909, 0.8703829500619429, 0.8813935417909369]</t>
+          <t>[0.6837498155990482, 0.6846016513489056, 0.7288773090038527, 0.8229117416173194, 0.8239513062472322, 0.8828179537426953, 0.884955193526087]</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>[92, 238, 148, 43, 211, 232, 152]</t>
+          <t>[92, 238, 43, 148, 211, 232, 152]</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>[0.6619225803462327, 0.7013201957899013, 0.8703829500619429, 0.8813935417909369, 0.9347338404885623, 1.0756039452071227, 1.0857940126886427]</t>
+          <t>[0.6837498155990482, 0.7288773090038527, 0.8828179537426953, 0.884955193526087, 0.9435753516901626, 1.085586874672711, 1.0925298826259557]</t>
         </is>
       </c>
       <c r="U70" t="n">
         <v>5</v>
       </c>
       <c r="V70" t="n">
-        <v>0.8425382597660169</v>
+        <v>0.8533846299949638</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
@@ -6593,7 +6593,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.535029</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6626,14 +6626,14 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K71" t="n">
         <v>0.8571428571428571</v>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N71" t="b">
         <v>1</v>
@@ -6643,17 +6643,17 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>[109, 140, 115, 97, 202, 211, 123]</t>
+          <t>[109, 140, 115, 97, 202, 211, 228]</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[0.5348268330365475, 0.6616882874438981, 0.6747694892504763, 0.6949516236721427, 0.8011037950562422, 0.8085920437163833, 0.8148641971106064]</t>
+          <t>[0.5372614186419247, 0.6733135069221736, 0.6800213388934316, 0.7255616026211936, 0.8140349023834463, 0.8274497560025675, 0.8343095323802531]</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -6663,14 +6663,14 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>[0.5348268330365475, 0.6616882874438981, 0.6747694892504763, 0.6949516236721427, 0.8085920437163833, 0.8148641971106064, 0.9961115343311194]</t>
+          <t>[0.5372614186419247, 0.6733135069221736, 0.6800213388934316, 0.7255616026211936, 0.8274497560025675, 0.8375930812503505, 0.9985715447856514]</t>
         </is>
       </c>
       <c r="U71" t="n">
         <v>5</v>
       </c>
       <c r="V71" t="n">
-        <v>0.8048479193863127</v>
+        <v>0.8207423291930069</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
@@ -6679,7 +6679,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.535029</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>[81, 131, 211, 238, 52, 89, 255]</t>
+          <t>[81, 131, 211, 238, 52, 89, 43]</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -6739,24 +6739,24 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[0.6619225803462327, 0.7756435159861088, 0.808859644255004, 0.8185154439850345, 0.8912821333295695, 1.0008635998850213, 1.005926538997204]</t>
+          <t>[0.6837498155990482, 0.777232168533986, 0.8170196036163002, 0.8197473979339444, 0.8945707441531214, 1.0056625659349516, 1.02155766160353]</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>[81, 211, 238, 89, 255, 43, 148]</t>
+          <t>[81, 211, 238, 89, 43, 255, 148]</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>[0.6619225803462327, 0.808859644255004, 0.8185154439850345, 1.0008635998850213, 1.005926538997204, 1.0122359143365776, 1.083863729144798]</t>
+          <t>[0.6837498155990482, 0.8170196036163002, 0.8197473979339444, 1.0056625659349516, 1.02155766160353, 1.0242736576318352, 1.084005380121043]</t>
         </is>
       </c>
       <c r="U72" t="n">
         <v>5</v>
       </c>
       <c r="V72" t="n">
-        <v>0.9460728666072954</v>
+        <v>0.9501166550440365</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
@@ -6765,7 +6765,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.535029</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6798,14 +6798,14 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N73" t="b">
         <v>1</v>
@@ -6815,34 +6815,34 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>[123, 120, 212, 73, 228, 235, 109]</t>
+          <t>[123, 120, 212, 73, 228, 235, 52]</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 1]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[0.2824019308693128, 0.3493443537121913, 0.39517583229122516, 0.575338679717741, 0.5780993205372317, 0.5957619443046039, 0.6263907064368928]</t>
+          <t>[0.2847222137026213, 0.3524788218583419, 0.396968059151611, 0.5754020193931507, 0.5951465310870481, 0.5993906857412412, 0.6468790362682084]</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>[123, 235, 109, 43, 89, 211, 115]</t>
+          <t>[123, 235, 109, 43, 211, 89, 115]</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>[0.2824019308693128, 0.5957619443046039, 0.6263907064368928, 0.6700354734286343, 0.6949516236721427, 0.7000257735738985, 0.8159188970403475]</t>
+          <t>[0.2847222137026213, 0.5993906857412412, 0.6579686778874483, 0.6702645400352867, 0.7096692778089146, 0.7255616026211936, 0.8505650056352148]</t>
         </is>
       </c>
       <c r="U73" t="n">
         <v>5</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5869306324209178</v>
+        <v>0.5972686084141446</v>
       </c>
       <c r="W73" t="n">
         <v>8</v>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.535029</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[0.37316390337226146, 0.40800778813903715, 0.49273854467087513, 0.6084494715851247, 0.6124360720059859, 0.6297248122114616, 0.64527706892046]</t>
+          <t>[0.3814654197736323, 0.4349828846984585, 0.5001231382133973, 0.6245948410331496, 0.6368957660224481, 0.6403081404578063, 0.6518395826265726]</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -6925,14 +6925,14 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>[0.37316390337226146, 0.49273854467087513, 0.6084494715851247, 0.6297248122114616, 0.709342282699308, 0.7904034133892661, 0.8289876256395535]</t>
+          <t>[0.3814654197736323, 0.5001231382133973, 0.6245948410331496, 0.6403081404578063, 0.7275555546242265, 0.7919604251466603, 0.8386979585442015]</t>
         </is>
       </c>
       <c r="U74" t="n">
         <v>5</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6210804421087237</v>
+        <v>0.6386019532401273</v>
       </c>
       <c r="W74" t="n">
         <v>5</v>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.535029</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -6995,34 +6995,34 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>[163, 149, 94, 100, 19, 48, 108]</t>
+          <t>[163, 149, 100, 94, 19, 108, 48]</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0, 0, 1]</t>
+          <t>[1, 1, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[0.5377016240921393, 0.5544210526517204, 0.6052237146042568, 0.6297248122114616, 0.708733986081233, 0.7211371965068957, 0.7218658702268169]</t>
+          <t>[0.5491054154435125, 0.5655087459425963, 0.6403081404578063, 0.6442575051810653, 0.7243326989352031, 0.7271310850861966, 0.7419489369632071]</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>[163, 149, 100, 108, 235, 255, 64]</t>
+          <t>[163, 149, 100, 108, 255, 235, 140]</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>[0.5377016240921393, 0.5544210526517204, 0.6297248122114616, 0.7218658702268169, 0.8331933628636701, 0.8519811882310742, 0.9160389929768012]</t>
+          <t>[0.5491054154435125, 0.5655087459425963, 0.6403081404578063, 0.7271310850861966, 0.8543443575432254, 0.8630087047452714, 0.929222656746963]</t>
         </is>
       </c>
       <c r="U75" t="n">
         <v>5</v>
       </c>
       <c r="V75" t="n">
-        <v>0.7149355912940643</v>
+        <v>0.7257318920106999</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
@@ -7031,7 +7031,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.535029</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -7064,14 +7064,14 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N76" t="b">
         <v>1</v>
@@ -7081,17 +7081,17 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>[149, 148, 93, 163, 65, 173, 105]</t>
+          <t>[149, 148, 93, 163, 65, 105, 238]</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 0, 1]</t>
+          <t>[1, 1, 0, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[0.29992483271483805, 0.49152730513153836, 0.6394835201871025, 0.6862404904821036, 0.6919113614620077, 0.7200547980512758, 0.7218658702268169]</t>
+          <t>[0.3038897605987809, 0.5096396655654444, 0.6653412268037457, 0.6872454769245254, 0.7139383231601071, 0.7271310850861966, 0.7352507212298602]</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7101,14 +7101,14 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>[0.29992483271483805, 0.49152730513153836, 0.6862404904821036, 0.6919113614620077, 0.7218658702268169, 0.7272448920463188, 0.8119916424243198]</t>
+          <t>[0.3038897605987809, 0.5096396655654444, 0.6872454769245254, 0.7139383231601071, 0.7271310850861966, 0.7352507212298602, 0.819053519492521]</t>
         </is>
       </c>
       <c r="U76" t="n">
         <v>5</v>
       </c>
       <c r="V76" t="n">
-        <v>0.7059830797566418</v>
+        <v>0.7205347041231518</v>
       </c>
       <c r="W76" t="n">
         <v>6</v>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.535029</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[0.27126387444395833, 0.49545337182457866, 0.5348268330365475, 0.5400682448723784, 0.6046282316825246, 0.6263907064368928, 0.7014464668264733]</t>
+          <t>[0.2755809159961009, 0.5024139570367484, 0.5372614186419247, 0.569090006161543, 0.6186515763942155, 0.6579686778874483, 0.7025361156754487]</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7191,14 +7191,14 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>[0.27126387444395833, 0.5348268330365475, 0.5400682448723784, 0.6046282316825246, 0.6263907064368928, 0.7014464668264733, 0.7666988358060929]</t>
+          <t>[0.2755809159961009, 0.5372614186419247, 0.569090006161543, 0.6186515763942155, 0.6579686778874483, 0.7025361156754487, 0.7818166873394855]</t>
         </is>
       </c>
       <c r="U77" t="n">
         <v>5</v>
       </c>
       <c r="V77" t="n">
-        <v>0.6155094690597087</v>
+        <v>0.6383101271408319</v>
       </c>
       <c r="W77" t="n">
         <v>3</v>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.535029</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[0.27126387444395833, 0.6747694892504763, 0.6749071480372996, 0.7252738804838589, 0.7537487343214063, 0.7968713316061269, 0.8159188970403475]</t>
+          <t>[0.2755809159961009, 0.6800213388934316, 0.6839786751732716, 0.7570612809019065, 0.7607065274485936, 0.7972644670129602, 0.8505650056352148]</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -7281,14 +7281,14 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>[0.27126387444395833, 0.6747694892504763, 0.7252738804838589, 0.7537487343214063, 0.7968713316061269, 0.8159188970403475, 0.9516521157257143]</t>
+          <t>[0.2755809159961009, 0.6800213388934316, 0.7570612809019065, 0.7607065274485936, 0.7972644670129602, 0.8505650056352148, 0.955538642534859]</t>
         </is>
       </c>
       <c r="U78" t="n">
         <v>5</v>
       </c>
       <c r="V78" t="n">
-        <v>0.7753100329637665</v>
+        <v>0.7789854972307768</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
@@ -7297,7 +7297,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.536027</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -7357,24 +7357,24 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[0.2824019308693128, 0.3708281996103717, 0.38716724561704224, 0.4040372859588888, 0.43244193821917476, 0.4530790750183801, 0.5400682448723784]</t>
+          <t>[0.2847222137026213, 0.3793438790232051, 0.3939440061621531, 0.4193002108376557, 0.43363226936670873, 0.4539672716514139, 0.569090006161543]</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>[97, 235, 109, 100, 115, 64, 43]</t>
+          <t>[97, 235, 109, 100, 43, 211, 115]</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>[0.2824019308693128, 0.43244193821917476, 0.5400682448723784, 0.709342282699308, 0.7252738804838589, 0.7340848855420055, 0.7401854695494643]</t>
+          <t>[0.2847222137026213, 0.43363226936670873, 0.569090006161543, 0.7275555546242265, 0.7420277265700203, 0.7489310761448903, 0.7570612809019065]</t>
         </is>
       </c>
       <c r="U79" t="n">
         <v>5</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4427605066187774</v>
+        <v>0.4437997705090613</v>
       </c>
       <c r="W79" t="n">
         <v>6</v>
@@ -7387,7 +7387,7 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.536027</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -7437,34 +7437,34 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>[163, 228, 109, 89, 48, 131, 149]</t>
+          <t>[163, 109, 228, 89, 48, 149, 131]</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 0, 0, 1]</t>
+          <t>[1, 1, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[0.4929692444770222, 0.5993083065977565, 0.6046282316825246, 0.6616882874438981, 0.6770477644451471, 0.7126891739335369, 0.7410063428187302]</t>
+          <t>[0.49614683090039763, 0.6186515763942155, 0.6324350835196312, 0.6733135069221736, 0.7125707766097452, 0.7417608001193681, 0.7502743556627371]</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>[163, 109, 89, 149, 115, 255, 235]</t>
+          <t>[163, 109, 89, 149, 115, 255, 64]</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>[0.4929692444770222, 0.6046282316825246, 0.6616882874438981, 0.7410063428187302, 0.7537487343214063, 0.7769568427602013, 0.78403196438058]</t>
+          <t>[0.49614683090039763, 0.6186515763942155, 0.6733135069221736, 0.7417608001193681, 0.7607065274485936, 0.7883740140743396, 0.8254463526654006]</t>
         </is>
       </c>
       <c r="U80" t="n">
         <v>5</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6948684691893421</v>
+        <v>0.7271657883645566</v>
       </c>
       <c r="W80" t="n">
         <v>4</v>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.536027</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -7527,17 +7527,17 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>[238, 108, 43, 131, 152, 52, 48]</t>
+          <t>[238, 108, 131, 43, 152, 52, 48]</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1, 0, 0]</t>
+          <t>[1, 1, 0, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[0.39093033491333024, 0.49152730513153836, 0.5654929813841216, 0.5700280947684877, 0.6466382589596689, 0.667926940786932, 0.6690884826587156]</t>
+          <t>[0.39581748886667, 0.5096396655654444, 0.5712327772999813, 0.578823751231119, 0.6651963991400394, 0.6706131639230086, 0.6707578233292644]</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7547,14 +7547,14 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>[0.39093033491333024, 0.49152730513153836, 0.5654929813841216, 0.6466382589596689, 0.6765256181848521, 0.7567557335357604, 0.7994492902358717]</t>
+          <t>[0.39581748886667, 0.5096396655654444, 0.578823751231119, 0.6651963991400394, 0.7009864249132617, 0.7819681745592105, 0.8030326487127786]</t>
         </is>
       </c>
       <c r="U81" t="n">
         <v>5</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6572825998733005</v>
+        <v>0.667904781531524</v>
       </c>
       <c r="W81" t="n">
         <v>9</v>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.536027</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -7617,17 +7617,17 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>[108, 163, 105, 48, 148, 140, 255]</t>
+          <t>[108, 163, 105, 148, 48, 140, 255]</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[0.29992483271483805, 0.43670762524526013, 0.5544210526517204, 0.6713187272172171, 0.6765256181848521, 0.7410063428187302, 0.7583933865874384]</t>
+          <t>[0.3038897605987809, 0.43964866157320914, 0.5655087459425963, 0.7009864249132617, 0.7040133229290276, 0.7417608001193681, 0.7651677630690972]</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -7637,14 +7637,14 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>[0.29992483271483805, 0.43670762524526013, 0.5544210526517204, 0.6765256181848521, 0.7410063428187302, 0.7583933865874384, 0.8289876256395535]</t>
+          <t>[0.3038897605987809, 0.43964866157320914, 0.5655087459425963, 0.7009864249132617, 0.7417608001193681, 0.7651677630690972, 0.8386979585442015]</t>
         </is>
       </c>
       <c r="U82" t="n">
         <v>5</v>
       </c>
       <c r="V82" t="n">
-        <v>0.7087659805017912</v>
+        <v>0.7228870615241978</v>
       </c>
       <c r="W82" t="n">
         <v>4</v>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.536027</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -7690,14 +7690,14 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K83" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N83" t="b">
         <v>1</v>
@@ -7707,17 +7707,17 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>[148, 209, 93, 238, 80, 232, 108]</t>
+          <t>[148, 209, 93, 238, 80, 232, 173]</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 1, 1]</t>
+          <t>[1, 0, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[0.6466382589596689, 0.653853904099133, 0.6766884895300109, 0.6951757569370529, 0.7259868626495602, 0.7764273067525674, 0.8259737406433503]</t>
+          <t>[0.6651963991400394, 0.6763937777570282, 0.6872133087732757, 0.7117010439268054, 0.7268835211813401, 0.8100951908066596, 0.8463701974353435]</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -7727,14 +7727,14 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>[0.6466382589596689, 0.6951757569370529, 0.7764273067525674, 0.8259737406433503, 0.8904919381651436, 0.9442328490831129, 0.995257078970062]</t>
+          <t>[0.6651963991400394, 0.7117010439268054, 0.8100951908066596, 0.8661090731098979, 0.9015337091568036, 0.9472686632849623, 0.9961504657383325]</t>
         </is>
       </c>
       <c r="U83" t="n">
         <v>5</v>
       </c>
       <c r="V83" t="n">
-        <v>0.7512070847010639</v>
+        <v>0.7684893559939998</v>
       </c>
       <c r="W83" t="n">
         <v>0</v>
@@ -7743,7 +7743,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.536027</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -7793,34 +7793,34 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>[149, 48, 100, 140, 19, 105, 64]</t>
+          <t>[149, 140, 100, 19, 48, 105, 64]</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>[0.43670762524526013, 0.4741393316580485, 0.49273854467087513, 0.4929692444770222, 0.4977276584015013, 0.5377016240921393, 0.5908926395789481]</t>
+          <t>[0.43964866157320914, 0.49614683090039763, 0.5001231382133973, 0.5026594241535012, 0.5041630762927459, 0.5491054154435125, 0.598799546429105]</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>[149, 100, 140, 105, 64, 235, 108]</t>
+          <t>[149, 140, 100, 105, 64, 235, 108]</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>[0.43670762524526013, 0.49273854467087513, 0.4929692444770222, 0.5377016240921393, 0.5908926395789481, 0.6031132427944544, 0.6862404904821036]</t>
+          <t>[0.43964866157320914, 0.49614683090039763, 0.5001231382133973, 0.5491054154435125, 0.598799546429105, 0.643450493045072, 0.6872454769245254]</t>
         </is>
       </c>
       <c r="U84" t="n">
         <v>5</v>
       </c>
       <c r="V84" t="n">
-        <v>0.5177146412468203</v>
+        <v>0.5266342458681292</v>
       </c>
       <c r="W84" t="n">
         <v>5</v>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.536027</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -7883,7 +7883,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>[121, 127, 132, 12, 72, 79, 80]</t>
+          <t>[121, 127, 132, 12, 79, 72, 80]</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[0.3370491254786003, 0.4032839267437384, 0.41067677606401365, 0.43491048303140106, 0.45916282474291154, 0.4608232139430562, 0.5849609404384695]</t>
+          <t>[0.33768994654565676, 0.4066552878841717, 0.4183821444859307, 0.4385053283021172, 0.46733362174284976, 0.47863680325038155, 0.5980033069022015]</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -7903,14 +7903,14 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>[0.6305525447391075, 0.8247636766892225, 0.8593272953697773, 0.9143326954383242, 0.9709771305508138, 0.9959400465818538, 1.0277071200423282]</t>
+          <t>[0.6403187830901854, 0.8308091603293024, 0.8906981084564612, 0.924219907084572, 1.016814707171587, 1.030595032750255, 1.043024642891857]</t>
         </is>
       </c>
       <c r="U85" t="n">
         <v>5</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4599930193429839</v>
+        <v>0.4729852124966156</v>
       </c>
       <c r="W85" t="n">
         <v>0</v>
@@ -7919,7 +7919,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.536027</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>[131, 244, 228, 48, 43, 235, 97]</t>
+          <t>[131, 228, 244, 48, 235, 43, 97]</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -7979,24 +7979,24 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[0.5007733012806255, 0.5664120265533512, 0.5917520467244496, 0.679508754657229, 0.6840114061582778, 0.6872809198771991, 0.7000257735738985]</t>
+          <t>[0.5107248067640306, 0.5951494115250707, 0.5994042617493563, 0.685359511926854, 0.6892958192434443, 0.6967840847892196, 0.7096692778089146]</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>[43, 235, 97, 123, 238, 140, 89]</t>
+          <t>[235, 43, 97, 123, 238, 92, 89]</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>[0.6840114061582778, 0.6872809198771991, 0.7000257735738985, 0.7445853417020576, 0.7474539078779278, 0.7887957356953434, 0.8085920437163833]</t>
+          <t>[0.6892958192434443, 0.6967840847892196, 0.7096692778089146, 0.7489310761448903, 0.7555710921711377, 0.8170196036163002, 0.8274497560025675]</t>
         </is>
       </c>
       <c r="U86" t="n">
         <v>5</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6856461630177384</v>
+        <v>0.693039952016332</v>
       </c>
       <c r="W86" t="n">
         <v>9</v>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.536027</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8059,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>[233, 226, 117, 17, 2, 79, 144]</t>
+          <t>[233, 226, 117, 17, 79, 2, 72]</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -8069,24 +8069,24 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[0.20055978101723154, 0.36449671454209764, 0.44060290201548663, 0.4610059462539289, 0.49252401362689624, 0.5013450917170513, 0.5962237883802595]</t>
+          <t>[0.20304438123983845, 0.3653168406770823, 0.45228359333075857, 0.46367388917786856, 0.5053506037512405, 0.5145704442034451, 0.6009488830546856]</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>[43, 152, 235, 148, 175, 238, 211]</t>
+          <t>[43, 152, 235, 148, 175, 211, 81]</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>[0.6103003018229257, 0.7764273067525674, 0.8144964604431083, 0.8400046983229017, 0.9143326954383242, 1.0343501140758533, 1.0397430087197173]</t>
+          <t>[0.6383988569412044, 0.8100951908066596, 0.8475106908505338, 0.894180897009044, 0.924219907084572, 1.0711475514970823, 1.085586874672711]</t>
         </is>
       </c>
       <c r="U87" t="n">
         <v>5</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4969345526719738</v>
+        <v>0.5099605239773428</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
@@ -8095,7 +8095,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.536027</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -8155,24 +8155,24 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[0.23734884771233705, 0.3034718302189095, 0.33448494520284394, 0.43244193821917476, 0.47853636685918244, 0.48155831906048946, 0.5080148126115259]</t>
+          <t>[0.2445674060855635, 0.3103814642049055, 0.3441411080174952, 0.43363226936670873, 0.48874534711789264, 0.5034048415791927, 0.5112649847280869]</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>[123, 43, 97, 163, 100, 64, 211]</t>
+          <t>[123, 43, 97, 100, 163, 64, 211]</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>[0.43244193821917476, 0.552236412561636, 0.5957619443046039, 0.6031132427944544, 0.6084494715851247, 0.6301008378490408, 0.6872809198771991]</t>
+          <t>[0.43363226936670873, 0.5584192820399272, 0.5993906857412412, 0.6245948410331496, 0.643450493045072, 0.6514409691975604, 0.6892958192434443]</t>
         </is>
       </c>
       <c r="U88" t="n">
         <v>5</v>
       </c>
       <c r="V88" t="n">
-        <v>0.480047342959836</v>
+        <v>0.4960750943485427</v>
       </c>
       <c r="W88" t="n">
         <v>11</v>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.536027</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -8245,7 +8245,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[0.39093033491333024, 0.5571828391907612, 0.6951757569370529, 0.7013201957899013, 0.7091531567244759, 0.7272448920463188, 0.7474539078779278]</t>
+          <t>[0.39581748886667, 0.5638895923556346, 0.7117010439268054, 0.7288773090038527, 0.7298347190209034, 0.7352507212298602, 0.7555710921711377]</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -8255,14 +8255,14 @@
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>[0.39093033491333024, 0.6951757569370529, 0.7013201957899013, 0.7091531567244759, 0.7272448920463188, 0.7474539078779278, 0.8185154439850345]</t>
+          <t>[0.39581748886667, 0.7117010439268054, 0.7288773090038527, 0.7298347190209034, 0.7352507212298602, 0.7555710921711377, 0.8197473979339444]</t>
         </is>
       </c>
       <c r="U89" t="n">
         <v>5</v>
       </c>
       <c r="V89" t="n">
-        <v>0.7181990243853973</v>
+        <v>0.7325427201253818</v>
       </c>
       <c r="W89" t="n">
         <v>7</v>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.537026</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>[52, 131, 148, 149, 140, 108, 238]</t>
+          <t>[52, 131, 149, 148, 140, 108, 163]</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -8335,24 +8335,24 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[0.5776162630598557, 0.7113689639444307, 0.7567557335357604, 0.7583933865874384, 0.7769568427602013, 0.8119916424243198, 0.8299530505163588]</t>
+          <t>[0.6118749054031555, 0.7479710555788844, 0.7651677630690972, 0.7819681745592105, 0.7883740140743396, 0.819053519492521, 0.847206754182795]</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>[148, 149, 140, 108, 238, 163, 43]</t>
+          <t>[149, 148, 140, 108, 163, 238, 105]</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>[0.7567557335357604, 0.7583933865874384, 0.7769568427602013, 0.8119916424243198, 0.8299530505163588, 0.8380356861706787, 0.849206196933526]</t>
+          <t>[0.7651677630690972, 0.7819681745592105, 0.7883740140743396, 0.819053519492521, 0.847206754182795, 0.8535481939061085, 0.8543443575432254]</t>
         </is>
       </c>
       <c r="U90" t="n">
         <v>5</v>
       </c>
       <c r="V90" t="n">
-        <v>0.7944742425922605</v>
+        <v>0.8037137667834303</v>
       </c>
       <c r="W90" t="n">
         <v>6</v>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.537026</t>
+          <t>2025-11-16T17:30:46.827380</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[0.38096560746787667, 0.5602058581758431, 0.5791943942307616, 0.625976738845584, 0.692865008786418, 0.7099268248324855, 0.7409127636879681]</t>
+          <t>[0.38442509840316014, 0.5700496822123148, 0.5960409429745355, 0.6455276126059131, 0.7037143742111784, 0.7185410072426086, 0.7554963394701343]</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -8435,14 +8435,14 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>[0.38096560746787667, 0.5602058581758431, 0.5791943942307616, 0.625976738845584, 0.692865008786418, 0.7099268248324855, 0.7409127636879681]</t>
+          <t>[0.38442509840316014, 0.5700496822123148, 0.5960409429745355, 0.6455276126059131, 0.7037143742111784, 0.7185410072426086, 0.7554963394701343]</t>
         </is>
       </c>
       <c r="U91" t="n">
         <v>5</v>
       </c>
       <c r="V91" t="n">
-        <v>0.7013959168094517</v>
+        <v>0.7111276907268935</v>
       </c>
       <c r="W91" t="n">
         <v>0</v>
@@ -8451,7 +8451,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.602422</t>
+          <t>2025-11-16T17:30:46.881182</t>
         </is>
       </c>
     </row>
@@ -8487,7 +8487,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
@@ -8501,34 +8501,34 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>[155, 223, 249, 75, 177, 54, 147]</t>
+          <t>[155, 249, 223, 75, 54, 177, 147]</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[0.49657675365988463, 0.5216216727442221, 0.5254785265222519, 0.7726140085811569, 0.8903349823914783, 0.8914388131932333, 0.8988314375245426]</t>
+          <t>[0.5039413142422827, 0.5277770053933114, 0.5351766316492056, 0.7773648121629239, 0.8954233023941371, 0.9015748126465197, 0.9023127096290695]</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>[155, 54, 9, 56, 28, 104, 50]</t>
+          <t>[155, 54, 9, 56, 104, 28, 85]</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>[0.49657675365988463, 0.8914388131932333, 1.0845320596827472, 1.1959977940190163, 1.2095809168541365, 1.2110287174658076, 1.2192661315905124]</t>
+          <t>[0.5039413142422827, 0.8954233023941371, 1.085459763661954, 1.1975495287537534, 1.2144092952966807, 1.2204449876060868, 1.2310435668575928]</t>
         </is>
       </c>
       <c r="U92" t="n">
         <v>5</v>
       </c>
       <c r="V92" t="n">
-        <v>0.8908868977923559</v>
+        <v>0.8984990575203284</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.602422</t>
+          <t>2025-11-16T17:30:46.881182</t>
         </is>
       </c>
     </row>
@@ -8597,7 +8597,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>[0.2955427178918812, 0.410487426017086, 0.4399619941983004, 0.484535065391997, 0.5626288160422286, 0.5771417935682029, 0.5952166230227902]</t>
+          <t>[0.2989377200929733, 0.41751526704491754, 0.4459612262712105, 0.4879990797660512, 0.5745105366100094, 0.5896709426830435, 0.6036980078765563]</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -8607,14 +8607,14 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>[0.2955427178918812, 0.410487426017086, 0.4399619941983004, 0.484535065391997, 0.6175734144806937, 0.639658847211677, 0.8006329506029288]</t>
+          <t>[0.2989377200929733, 0.41751526704491754, 0.4459612262712105, 0.4879990797660512, 0.6372278863653192, 0.6525763976753615, 0.8239890356814558]</t>
         </is>
       </c>
       <c r="U93" t="n">
         <v>5</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5698853048052157</v>
+        <v>0.5820907396465265</v>
       </c>
       <c r="W93" t="n">
         <v>2</v>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.603423</t>
+          <t>2025-11-16T17:30:46.881182</t>
         </is>
       </c>
     </row>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[0.517746376982928, 0.5290901307174245, 0.5474678622398428, 0.5848039527783107, 0.6416259822085588, 0.6591701923340922, 0.6837925511059106]</t>
+          <t>[0.5236381757491484, 0.5477793982734801, 0.5710278871313593, 0.6091801400081102, 0.658411398133888, 0.67482717407048, 0.6864156315669987]</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -8697,14 +8697,14 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>[0.517746376982928, 0.5290901307174245, 0.5474678622398428, 0.5848039527783107, 0.6416259822085588, 0.6837925511059106, 0.7044538101279509]</t>
+          <t>[0.5236381757491484, 0.5477793982734801, 0.5710278871313593, 0.6091801400081102, 0.658411398133888, 0.6864156315669987, 0.7078062339100766]</t>
         </is>
       </c>
       <c r="U94" t="n">
         <v>5</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6503980872713255</v>
+        <v>0.666619286102184</v>
       </c>
       <c r="W94" t="n">
         <v>6</v>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.603423</t>
+          <t>2025-11-16T17:30:46.881182</t>
         </is>
       </c>
     </row>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[0.35654200621839444, 0.39741993646609286, 0.4868430165774414, 0.5852608858852806, 0.6175734144806937, 0.6635499498151323, 0.7012077414717325]</t>
+          <t>[0.3679528350724038, 0.4108716076615944, 0.4911017679143049, 0.604761079077515, 0.6372278863653192, 0.6788527762696384, 0.7149810845005588]</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -8787,14 +8787,14 @@
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>[0.35654200621839444, 0.39741993646609286, 0.4868430165774414, 0.5852608858852806, 0.6175734144806937, 0.6635499498151323, 0.7012077414717325]</t>
+          <t>[0.3679528350724038, 0.4108716076615944, 0.4911017679143049, 0.604761079077515, 0.6372278863653192, 0.6788527762696384, 0.7149810845005588]</t>
         </is>
       </c>
       <c r="U95" t="n">
         <v>5</v>
       </c>
       <c r="V95" t="n">
-        <v>0.640561682147913</v>
+        <v>0.6580403313174787</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.603423</t>
+          <t>2025-11-16T17:30:46.881182</t>
         </is>
       </c>
     </row>
@@ -8853,17 +8853,17 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>[56, 98, 176, 198, 104, 151, 85]</t>
+          <t>[56, 98, 176, 198, 104, 85, 151]</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 1, 0, 1]</t>
+          <t>[1, 0, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>[0.4690005989783855, 0.5146859786615114, 0.6449933097703037, 0.650668994383932, 0.6576410883730234, 0.6625385252974372, 0.6680721308173067]</t>
+          <t>[0.4799241157247254, 0.5265883316743586, 0.6452244556344244, 0.6568105868547626, 0.6705596578145133, 0.6706435715130615, 0.6756344962471138]</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -8873,14 +8873,14 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>[0.4690005989783855, 0.6449933097703037, 0.650668994383932, 0.6576410883730234, 0.6680721308173067, 0.7107378168689371, 0.7535908835291214]</t>
+          <t>[0.4799241157247254, 0.6452244556344244, 0.6568105868547626, 0.6705596578145133, 0.6706435715130615, 0.7157525421399457, 0.779479387374044]</t>
         </is>
       </c>
       <c r="U96" t="n">
         <v>5</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6600898068352303</v>
+        <v>0.6706016146637874</v>
       </c>
       <c r="W96" t="n">
         <v>4</v>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.603423</t>
+          <t>2025-11-16T17:30:46.881182</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[0.9439022435555272, 0.9664382565058135, 0.9959837470858038, 1.0392655254465897, 1.1056627806504973, 1.1656273504197563, 1.3255400853252162]</t>
+          <t>[0.9500910394854237, 0.9718621718978491, 0.9983832736514919, 1.0501558871152583, 1.1204968931070014, 1.1705296452943368, 1.3293480653280008]</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>[0.9439022435555272, 0.9664382565058135, 0.9959837470858038, 1.0392655254465897, 1.1056627806504973, 1.1656273504197563, 1.3255400853252162]</t>
+          <t>[0.9500910394854237, 0.9718621718978491, 0.9983832736514919, 1.0501558871152583, 1.1204968931070014, 1.1705296452943368, 1.3293480653280008]</t>
         </is>
       </c>
       <c r="U97" t="n">
         <v>5</v>
       </c>
       <c r="V97" t="n">
-        <v>1.135645065535127</v>
+        <v>1.145513269200669</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
@@ -8979,7 +8979,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.603423</t>
+          <t>2025-11-16T17:30:46.881182</t>
         </is>
       </c>
     </row>
@@ -9039,7 +9039,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>[0.34147249197871704, 0.39741993646609286, 0.410487426017086, 0.461653196106454, 0.475099558103792, 0.5687229737171973, 0.692865008786418]</t>
+          <t>[0.3453825266095923, 0.4108716076615944, 0.41751526704491754, 0.47332846323801725, 0.4768907609493778, 0.5710051784005822, 0.7037143742111784]</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -9049,14 +9049,14 @@
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>[0.34147249197871704, 0.39741993646609286, 0.410487426017086, 0.461653196106454, 0.475099558103792, 0.5687229737171973, 0.692865008786418]</t>
+          <t>[0.3453825266095923, 0.4108716076615944, 0.41751526704491754, 0.47332846323801725, 0.4768907609493778, 0.5710051784005822, 0.7037143742111784]</t>
         </is>
       </c>
       <c r="U98" t="n">
         <v>5</v>
       </c>
       <c r="V98" t="n">
-        <v>0.5219112659104946</v>
+        <v>0.52394796967498</v>
       </c>
       <c r="W98" t="n">
         <v>0</v>
@@ -9065,7 +9065,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.604423</t>
+          <t>2025-11-16T17:30:46.881182</t>
         </is>
       </c>
     </row>
@@ -9125,24 +9125,24 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>[0.24331076500961982, 0.6680644872590343, 0.6754842114385159, 0.6808660522355675, 0.7323714242673737, 0.7362211319538363, 0.770342896162541]</t>
+          <t>[0.2445039104052064, 0.6740163925769167, 0.6815159568089979, 0.6826414621157002, 0.7326725738751344, 0.7446026951457856, 0.771216505094465]</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>[69, 63, 9, 137, 146, 23, 155]</t>
+          <t>[69, 63, 137, 9, 146, 23, 155]</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>[0.9163074964993377, 0.9584760926181478, 0.9817360424677543, 1.0084181227076876, 1.1091992369858457, 1.1621145513556734, 1.2026616351891362]</t>
+          <t>[0.9706644538567688, 0.9922012346470731, 1.035730276785782, 1.0376037191290737, 1.1357369386134721, 1.1847397144907055, 1.2334721140368405]</t>
         </is>
       </c>
       <c r="U99" t="n">
         <v>5</v>
       </c>
       <c r="V99" t="n">
-        <v>0.734296278110605</v>
+        <v>0.7386376345104599</v>
       </c>
       <c r="W99" t="n">
         <v>0</v>
@@ -9151,7 +9151,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.604423</t>
+          <t>2025-11-16T17:30:46.881182</t>
         </is>
       </c>
     </row>
@@ -9187,7 +9187,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>[85, 155, 24, 231, 104, 98, 223]</t>
+          <t>[85, 155, 24, 231, 104, 98, 249]</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -9211,7 +9211,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>[0.434763181770068, 0.6454872954830537, 0.7044538101279509, 0.7138153670436284, 0.7456206032426589, 0.7841147120434258, 0.8187790361213444]</t>
+          <t>[0.44427531562716405, 0.6617304895779782, 0.7078062339100766, 0.7141244349984915, 0.759341286232523, 0.803547019225706, 0.8276300530549561]</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -9221,14 +9221,14 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>[0.434763181770068, 0.6454872954830537, 0.7044538101279509, 0.7456206032426589, 0.854196872747529, 0.8914388131932333, 0.9612925330256208]</t>
+          <t>[0.44427531562716405, 0.6617304895779782, 0.7078062339100766, 0.759341286232523, 0.8663104638198084, 0.8954233023941371, 0.9647087725670362]</t>
         </is>
       </c>
       <c r="U100" t="n">
         <v>5</v>
       </c>
       <c r="V100" t="n">
-        <v>0.7648676576430423</v>
+        <v>0.7814441527291145</v>
       </c>
       <c r="W100" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.604423</t>
+          <t>2025-11-16T17:30:46.882181</t>
         </is>
       </c>
     </row>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[0.4236839368560797, 0.4690005989783855, 0.4756126654554677, 0.4868430165774414, 0.5602058581758431, 0.5687229737171973, 0.5706199425721753]</t>
+          <t>[0.44074052474690184, 0.4799241157247254, 0.48113305875276535, 0.4911017679143049, 0.5700496822123148, 0.5710051784005822, 0.5739402940800956]</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -9307,14 +9307,14 @@
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>[0.4236839368560797, 0.4690005989783855, 0.4868430165774414, 0.5602058581758431, 0.5687229737171973, 0.5706199425721753, 0.574856339876054]</t>
+          <t>[0.44074052474690184, 0.4799241157247254, 0.4911017679143049, 0.5700496822123148, 0.5710051784005822, 0.5739402940800956, 0.5834195859501857]</t>
         </is>
       </c>
       <c r="U101" t="n">
         <v>5</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5644644159465202</v>
+        <v>0.5705274303064485</v>
       </c>
       <c r="W101" t="n">
         <v>5</v>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.604423</t>
+          <t>2025-11-16T17:30:46.882181</t>
         </is>
       </c>
     </row>
@@ -9387,7 +9387,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>[0.1791318535423348, 0.4399619941983004, 0.4529919950135123, 0.475099558103792, 0.5013186341588151, 0.5452694396395061, 0.5791943942307616]</t>
+          <t>[0.18161768804517794, 0.4459612262712105, 0.4603448019951886, 0.4768907609493778, 0.5199676241514325, 0.5604498481960528, 0.5960409429745355]</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -9397,14 +9397,14 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>[0.1791318535423348, 0.4399619941983004, 0.4529919950135123, 0.475099558103792, 0.5013186341588151, 0.5791943942307616, 0.6505542518001223]</t>
+          <t>[0.18161768804517794, 0.4459612262712105, 0.4603448019951886, 0.4768907609493778, 0.5199676241514325, 0.5960409429745355, 0.662613972425397]</t>
         </is>
       </c>
       <c r="U102" t="n">
         <v>5</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5232940368991605</v>
+        <v>0.5402087361737427</v>
       </c>
       <c r="W102" t="n">
         <v>3</v>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.604423</t>
+          <t>2025-11-16T17:30:46.882181</t>
         </is>
       </c>
     </row>
@@ -9467,34 +9467,34 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>[9, 63, 137, 150, 34, 191, 23]</t>
+          <t>[9, 63, 137, 150, 34, 23, 191]</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1, 0, 1]</t>
+          <t>[1, 1, 1, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>[0.38096560746787667, 0.5013186341588151, 0.5978974479094599, 0.6100320261747797, 0.7745660454971275, 0.8005548123181487, 0.8006329506029288]</t>
+          <t>[0.38442509840316014, 0.5199676241514325, 0.6185623971200636, 0.6448369892862066, 0.7862974892066896, 0.8239890356814558, 0.8341507911436333]</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>[9, 63, 137, 34, 23, 146, 56]</t>
+          <t>[9, 63, 137, 34, 23, 56, 146]</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>[0.38096560746787667, 0.5013186341588151, 0.5978974479094599, 0.7745660454971275, 0.8006329506029288, 0.8344971446240858, 0.837719017847679]</t>
+          <t>[0.38442509840316014, 0.5199676241514325, 0.6185623971200636, 0.7862974892066896, 0.8239890356814558, 0.8476698181663367, 0.8629591495287947]</t>
         </is>
       </c>
       <c r="U103" t="n">
         <v>5</v>
       </c>
       <c r="V103" t="n">
-        <v>0.7875604289076381</v>
+        <v>0.8051432624440726</v>
       </c>
       <c r="W103" t="n">
         <v>4</v>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.605427</t>
+          <t>2025-11-16T17:30:46.882181</t>
         </is>
       </c>
     </row>
@@ -9557,7 +9557,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>[157, 83, 142, 170, 206, 168, 205]</t>
+          <t>[157, 83, 142, 168, 170, 206, 205]</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -9567,24 +9567,24 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>[0.7128871507977116, 0.7654494642588414, 0.7810467352102528, 0.789373644548521, 0.7913079879013891, 0.7939447850879894, 0.8256381891546706]</t>
+          <t>[0.7302861920217978, 0.772056549771921, 0.8003426879360892, 0.8019506481378325, 0.8026818003077708, 0.8135835752032297, 0.8462804076612694]</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>[157, 83, 142, 170, 206, 168, 205]</t>
+          <t>[157, 83, 142, 168, 170, 206, 205]</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>[0.7128871507977116, 0.7654494642588414, 0.7810467352102528, 0.789373644548521, 0.7913079879013891, 0.7939447850879894, 0.8256381891546706]</t>
+          <t>[0.7302861920217978, 0.772056549771921, 0.8003426879360892, 0.8019506481378325, 0.8026818003077708, 0.8135835752032297, 0.8462804076612694]</t>
         </is>
       </c>
       <c r="U104" t="n">
         <v>5</v>
       </c>
       <c r="V104" t="n">
-        <v>0.7926263864946892</v>
+        <v>0.8081326877555002</v>
       </c>
       <c r="W104" t="n">
         <v>0</v>
@@ -9593,7 +9593,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.605427</t>
+          <t>2025-11-16T17:30:46.882181</t>
         </is>
       </c>
     </row>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>[0.7241328307611333, 1.2569159179708733, 1.2760888375006267, 1.4062680002915933, 1.4551664186213469, 1.4809217610086594, 1.483561496454325]</t>
+          <t>[0.7304689242718436, 1.2601101523262768, 1.2842790107539173, 1.4187183337995468, 1.4701012148201618, 1.483943690251038, 1.4931484225159557]</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -9663,14 +9663,14 @@
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>[0.7241328307611333, 1.2569159179708733, 1.2760888375006267, 1.4062680002915933, 1.4551664186213469, 1.4809217610086594, 1.483561496454325]</t>
+          <t>[0.7304689242718436, 1.2601101523262768, 1.2842790107539173, 1.4187183337995468, 1.4701012148201618, 1.483943690251038, 1.4931484225159557]</t>
         </is>
       </c>
       <c r="U105" t="n">
         <v>5</v>
       </c>
       <c r="V105" t="n">
-        <v>1.468044089815003</v>
+        <v>1.4770224525356</v>
       </c>
       <c r="W105" t="n">
         <v>0</v>
@@ -9679,7 +9679,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.605427</t>
+          <t>2025-11-16T17:30:46.882181</t>
         </is>
       </c>
     </row>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>[0.5290102580671566, 0.7654494642588414, 0.8350657397799904, 0.8704027290071177, 0.9291023563890749, 0.9471317731956356, 0.9688673751293614]</t>
+          <t>[0.5471638616624125, 0.772056549771921, 0.8447823974322483, 0.8836327358216702, 0.9356129388336055, 0.9602809345309627, 0.9914772848619904]</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -9749,14 +9749,14 @@
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>[0.5290102580671566, 0.7654494642588414, 0.8350657397799904, 0.8704027290071177, 0.9291023563890749, 0.9471317731956356, 0.9688673751293614]</t>
+          <t>[0.5471638616624125, 0.772056549771921, 0.8447823974322483, 0.8836327358216702, 0.9356129388336055, 0.9602809345309627, 0.9914772848619904]</t>
         </is>
       </c>
       <c r="U106" t="n">
         <v>5</v>
       </c>
       <c r="V106" t="n">
-        <v>0.9381170647923552</v>
+        <v>0.9479469366822841</v>
       </c>
       <c r="W106" t="n">
         <v>0</v>
@@ -9765,7 +9765,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.606425</t>
+          <t>2025-11-16T17:30:46.882181</t>
         </is>
       </c>
     </row>
@@ -9815,17 +9815,17 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>[54, 104, 231, 24, 28, 98, 198]</t>
+          <t>[54, 231, 104, 24, 28, 98, 198]</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 0, 1]</t>
+          <t>[1, 0, 1, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>[0.434763181770068, 0.6336825740295993, 0.6373752327076944, 0.6416259822085588, 0.6680721308173067, 0.6735181776879127, 0.7452804686044484]</t>
+          <t>[0.44427531562716405, 0.6447013374049927, 0.6463148953416356, 0.658411398133888, 0.6706435715130615, 0.6860732314542521, 0.7540379974195242]</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -9835,14 +9835,14 @@
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>[0.434763181770068, 0.6336825740295993, 0.6416259822085588, 0.6680721308173067, 0.7452804686044484, 0.8138502587384713, 0.8803577417330118]</t>
+          <t>[0.44427531562716405, 0.6463148953416356, 0.658411398133888, 0.6706435715130615, 0.7540379974195242, 0.8269085976621571, 0.8894683922601825]</t>
         </is>
       </c>
       <c r="U107" t="n">
         <v>5</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6707951542526096</v>
+        <v>0.6783584014836568</v>
       </c>
       <c r="W107" t="n">
         <v>4</v>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.606425</t>
+          <t>2025-11-16T17:30:46.882181</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>[98, 151, 112, 198, 24, 170, 168]</t>
+          <t>[98, 151, 112, 198, 170, 24, 168]</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
@@ -9915,24 +9915,24 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>[0.2641256221180266, 0.3544636731732402, 0.4056460223536656, 0.4070951801122176, 0.5290901307174245, 0.5383571360625414, 0.5986759404104561]</t>
+          <t>[0.2692221455737671, 0.3545033697580778, 0.40660305267172087, 0.4125563596396209, 0.5429003382417463, 0.5477793982734801, 0.6125523925119872]</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>[112, 198, 24, 170, 168, 56, 207]</t>
+          <t>[112, 198, 170, 24, 168, 56, 207]</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>[0.4056460223536656, 0.4070951801122176, 0.5290901307174245, 0.5383571360625414, 0.5986759404104561, 0.6136789404326459, 0.6260691010912444]</t>
+          <t>[0.40660305267172087, 0.4125563596396209, 0.5429003382417463, 0.5477793982734801, 0.6125523925119872, 0.6175339903360472, 0.6432787062698017]</t>
         </is>
       </c>
       <c r="U108" t="n">
         <v>5</v>
       </c>
       <c r="V108" t="n">
-        <v>0.533723633389983</v>
+        <v>0.5453398682576132</v>
       </c>
       <c r="W108" t="n">
         <v>9</v>
@@ -9945,7 +9945,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.606425</t>
+          <t>2025-11-16T17:30:46.882181</t>
         </is>
       </c>
     </row>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>[77, 250, 263, 206, 266, 157, 83]</t>
+          <t>[77, 250, 263, 206, 266, 157, 205]</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
@@ -10005,24 +10005,24 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>[0.7241328307611333, 0.7358828169627238, 0.7691502040390461, 0.8097874283180709, 0.8945177320320554, 0.9271671642369691, 1.0114137219216164]</t>
+          <t>[0.7304689242718436, 0.7396705287189475, 0.7788980076444337, 0.819152607345276, 0.8950188386307387, 0.9334353471198482, 1.0293364381008576]</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>[77, 250, 263, 206, 266, 157, 83]</t>
+          <t>[77, 250, 263, 206, 266, 157, 205]</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>[0.7241328307611333, 0.7358828169627238, 0.7691502040390461, 0.8097874283180709, 0.8945177320320554, 0.9271671642369691, 1.0114137219216164]</t>
+          <t>[0.7304689242718436, 0.7396705287189475, 0.7788980076444337, 0.819152607345276, 0.8950188386307387, 0.9334353471198482, 1.0293364381008576]</t>
         </is>
       </c>
       <c r="U109" t="n">
         <v>5</v>
       </c>
       <c r="V109" t="n">
-        <v>0.9108424481345123</v>
+        <v>0.9142270928752935</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
@@ -10031,7 +10031,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.607425</t>
+          <t>2025-11-16T17:30:46.882181</t>
         </is>
       </c>
     </row>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>[198, 104, 151, 170, 24, 168, 205]</t>
+          <t>[198, 104, 151, 170, 24, 205, 168]</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -10091,24 +10091,24 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>[0.37786317674671466, 0.4056460223536656, 0.42616848287401105, 0.456646806408507, 0.5474678622398428, 0.5993499385396183, 0.6012105396583689]</t>
+          <t>[0.38606434027900394, 0.40660305267172087, 0.4271123786583276, 0.4646445650183475, 0.5710278871313593, 0.6054931447295141, 0.6105293010442732]</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>[198, 104, 170, 24, 168, 205, 157]</t>
+          <t>[198, 104, 170, 24, 205, 168, 157]</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>[0.37786317674671466, 0.4056460223536656, 0.456646806408507, 0.5474678622398428, 0.5993499385396183, 0.6012105396583689, 0.6506921362302605]</t>
+          <t>[0.38606434027900394, 0.40660305267172087, 0.4646445650183475, 0.5710278871313593, 0.6054931447295141, 0.6105293010442732, 0.6529015063505338]</t>
         </is>
       </c>
       <c r="U110" t="n">
         <v>5</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5734089003897305</v>
+        <v>0.5882605159304367</v>
       </c>
       <c r="W110" t="n">
         <v>4</v>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.607425</t>
+          <t>2025-11-16T17:30:46.882181</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>[26, 181, 165, 236, 23, 169, 87]</t>
+          <t>[26, 181, 165, 236, 23, 87, 169]</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -10181,24 +10181,24 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>[0.9463790644831835, 0.9524669754726155, 0.975487214534022, 0.9784156582831, 0.994808290367677, 0.9948965267238324, 0.9989086330087116]</t>
+          <t>[0.9557222414990337, 0.9688347725423178, 0.984394289072811, 1.0009036064369532, 1.008706473105202, 1.0219908720764885, 1.0399177358403326]</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>[26, 236, 23, 9, 137, 63, 146]</t>
+          <t>[26, 236, 23, 137, 9, 63, 146]</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>[0.9463790644831835, 0.9784156582831, 0.994808290367677, 1.023201165385813, 1.0268667045737634, 1.0303453800083369, 1.0342002041713916]</t>
+          <t>[0.9557222414990337, 1.0009036064369532, 1.008706473105202, 1.0449196843978992, 1.047398172225396, 1.0506040299784203, 1.0545370852257854]</t>
         </is>
       </c>
       <c r="U111" t="n">
         <v>5</v>
       </c>
       <c r="V111" t="n">
-        <v>0.9948524085457547</v>
+        <v>1.015348672590845</v>
       </c>
       <c r="W111" t="n">
         <v>0</v>
@@ -10207,7 +10207,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.607425</t>
+          <t>2025-11-16T17:30:46.883184</t>
         </is>
       </c>
     </row>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>[63, 23, 34, 146, 191, 26, 150]</t>
+          <t>[63, 23, 34, 146, 191, 176, 150]</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
@@ -10267,24 +10267,24 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>[0.1791318535423348, 0.2955427178918812, 0.34147249197871704, 0.4876162026863744, 0.5546426073381598, 0.5852608858852806, 0.5854765877383794]</t>
+          <t>[0.18161768804517794, 0.2989377200929733, 0.3453825266095923, 0.49194694182090226, 0.5662309446276997, 0.600942637029804, 0.6031114793493927]</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>[63, 23, 34, 146, 26, 176, 69]</t>
+          <t>[63, 23, 34, 146, 176, 26, 69]</t>
         </is>
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>[0.1791318535423348, 0.2955427178918812, 0.34147249197871704, 0.4876162026863744, 0.5852608858852806, 0.5866969272316529, 0.5978974479094599]</t>
+          <t>[0.18161768804517794, 0.2989377200929733, 0.3453825266095923, 0.49194694182090226, 0.600942637029804, 0.604761079077515, 0.6185623971200636]</t>
         </is>
       </c>
       <c r="U112" t="n">
         <v>5</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5699517466117202</v>
+        <v>0.5835867908287519</v>
       </c>
       <c r="W112" t="n">
         <v>5</v>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.607425</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>[0.320934838866349, 0.37931187091345836, 0.4543461677939765, 0.5598381321351875, 0.615544648630207, 0.6453832619449626, 0.7098097146509788]</t>
+          <t>[0.3378381546600422, 0.38266026183001, 0.46787391741518586, 0.5680099816657718, 0.6343241479987242, 0.6520390615133854, 0.7137947868077184]</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -10367,14 +10367,14 @@
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>[0.320934838866349, 0.37931187091345836, 0.4543461677939765, 0.5598381321351875, 0.615544648630207, 0.6453832619449626, 0.7098097146509788]</t>
+          <t>[0.3378381546600422, 0.38266026183001, 0.46787391741518586, 0.5680099816657718, 0.6343241479987242, 0.6520390615133854, 0.7137947868077184]</t>
         </is>
       </c>
       <c r="U113" t="n">
         <v>5</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6304639552875848</v>
+        <v>0.6431816047560548</v>
       </c>
       <c r="W113" t="n">
         <v>0</v>
@@ -10383,7 +10383,7 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.607425</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>[124, 191, 63, 257, 23, 137, 18]</t>
+          <t>[124, 191, 63, 257, 23, 137, 215]</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>[0.3949728448841966, 0.42243193216457786, 0.4529919950135123, 0.47328651315554476, 0.484535065391997, 0.4876162026863744, 0.6406798018850421]</t>
+          <t>[0.40195341546390156, 0.4358909886199131, 0.4603448019951886, 0.47627073274011, 0.4879990797660512, 0.49194694182090226, 0.6758146710523859]</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
@@ -10453,14 +10453,14 @@
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>[0.4529919950135123, 0.484535065391997, 0.4876162026863744, 0.7682006422168285, 0.8108718580740962, 0.8344971446240858, 0.9026982940187475]</t>
+          <t>[0.4603448019951886, 0.4879990797660512, 0.49194694182090226, 0.7745723494744634, 0.8195573723918833, 0.8629591495287947, 0.9197989279839716]</t>
         </is>
       </c>
       <c r="U114" t="n">
         <v>5</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4860756340391857</v>
+        <v>0.4899730107934768</v>
       </c>
       <c r="W114" t="n">
         <v>0</v>
@@ -10469,7 +10469,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.608423</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>[0.46798333438455836, 0.49657675365988463, 0.5992963895660876, 0.6454872954830537, 0.6934845498281695, 0.7917121966762668, 0.8803577417330118]</t>
+          <t>[0.4737593358988068, 0.5039413142422827, 0.607773502225864, 0.6617304895779782, 0.69606715452159, 0.792119403787816, 0.8894683922601825]</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -10539,14 +10539,14 @@
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>[0.49657675365988463, 0.6454872954830537, 0.7917121966762668, 0.8803577417330118, 0.9239110763853164, 0.9669777113734815, 1.0492625073930664]</t>
+          <t>[0.5039413142422827, 0.6617304895779782, 0.792119403787816, 0.8894683922601825, 0.9336822435377966, 0.9694091926854395, 1.0557244940386836]</t>
         </is>
       </c>
       <c r="U115" t="n">
         <v>5</v>
       </c>
       <c r="V115" t="n">
-        <v>0.7425983732522181</v>
+        <v>0.744093279154703</v>
       </c>
       <c r="W115" t="n">
         <v>0</v>
@@ -10555,7 +10555,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.608423</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>[205, 250, 206, 142, 170, 243, 112]</t>
+          <t>[205, 250, 142, 206, 170, 112, 243]</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
@@ -10615,24 +10615,24 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>[0.2512529172973102, 0.28480322330557833, 0.4537169929873896, 0.4543461677939765, 0.5511170928549866, 0.6400236547186597, 0.6506921362302605]</t>
+          <t>[0.25495137979597704, 0.28788458906815456, 0.46787391741518586, 0.4770073124520764, 0.5534720876318724, 0.6529015063505338, 0.6561372737161582]</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>[205, 250, 206, 142, 170, 243, 112]</t>
+          <t>[205, 250, 142, 206, 170, 112, 243]</t>
         </is>
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>[0.2512529172973102, 0.28480322330557833, 0.4537169929873896, 0.4543461677939765, 0.5511170928549866, 0.6400236547186597, 0.6506921362302605]</t>
+          <t>[0.25495137979597704, 0.28788458906815456, 0.46787391741518586, 0.4770073124520764, 0.5534720876318724, 0.6529015063505338, 0.6561372737161582]</t>
         </is>
       </c>
       <c r="U116" t="n">
         <v>5</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5955703737868232</v>
+        <v>0.603186796991203</v>
       </c>
       <c r="W116" t="n">
         <v>0</v>
@@ -10641,7 +10641,7 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.608423</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>[170, 24, 104, 112, 151, 207, 56]</t>
+          <t>[170, 24, 112, 104, 151, 207, 56]</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
@@ -10701,24 +10701,24 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>[0.48388901567773623, 0.5848039527783107, 0.5986759404104561, 0.5993499385396183, 0.60723108703327, 0.7468724840944047, 0.7754307027574597]</t>
+          <t>[0.4966682969795513, 0.6091801400081102, 0.6105293010442732, 0.6125523925119872, 0.6215284693292767, 0.7746128959757689, 0.7907000388907025]</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>[170, 24, 104, 112, 207, 56, 76]</t>
+          <t>[170, 24, 112, 104, 207, 56, 76]</t>
         </is>
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>[0.48388901567773623, 0.5848039527783107, 0.5986759404104561, 0.5993499385396183, 0.7468724840944047, 0.7754307027574597, 0.7939447850879894]</t>
+          <t>[0.4966682969795513, 0.6091801400081102, 0.6105293010442732, 0.6125523925119872, 0.7746128959757689, 0.7907000388907025, 0.8019506481378325]</t>
         </is>
       </c>
       <c r="U117" t="n">
         <v>5</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6770517855638374</v>
+        <v>0.6980706826525228</v>
       </c>
       <c r="W117" t="n">
         <v>6</v>
@@ -10731,7 +10731,7 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.608423</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -10791,24 +10791,24 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>[0.3397677515405408, 0.4204065778950471, 0.456646806408507, 0.48388901567773623, 0.517746376982928, 0.5383571360625414, 0.5511170928549866]</t>
+          <t>[0.34761086952020015, 0.4329256751652859, 0.4646445650183475, 0.4966682969795513, 0.5236381757491484, 0.5429003382417463, 0.5534720876318724]</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>[207, 112, 168, 24, 104, 157, 198]</t>
+          <t>[207, 112, 168, 24, 104, 157, 56]</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>[0.4204065778950471, 0.456646806408507, 0.48388901567773623, 0.517746376982928, 0.5383571360625414, 0.5511170928549866, 0.5703640653466163]</t>
+          <t>[0.4329256751652859, 0.4646445650183475, 0.4966682969795513, 0.5236381757491484, 0.5429003382417463, 0.5534720876318724, 0.5739402940800956]</t>
         </is>
       </c>
       <c r="U118" t="n">
         <v>5</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5280517565227347</v>
+        <v>0.5332692569954474</v>
       </c>
       <c r="W118" t="n">
         <v>10</v>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.608423</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>[26, 34, 56, 137, 23, 28, 63]</t>
+          <t>[26, 34, 56, 137, 28, 23, 63]</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
@@ -10881,24 +10881,24 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>[0.35654200621839444, 0.461653196106454, 0.574856339876054, 0.5866969272316529, 0.639658847211677, 0.6449933097703037, 0.6505542518001223]</t>
+          <t>[0.3679528350724038, 0.47332846323801725, 0.5834195859501857, 0.600942637029804, 0.6452244556344244, 0.6525763976753615, 0.662613972425397]</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>[26, 34, 56, 137, 23, 28, 63]</t>
+          <t>[26, 34, 56, 137, 28, 23, 63]</t>
         </is>
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>[0.35654200621839444, 0.461653196106454, 0.574856339876054, 0.5866969272316529, 0.639658847211677, 0.6449933097703037, 0.6505542518001223]</t>
+          <t>[0.3679528350724038, 0.47332846323801725, 0.5834195859501857, 0.600942637029804, 0.6452244556344244, 0.6525763976753615, 0.662613972425397]</t>
         </is>
       </c>
       <c r="U119" t="n">
         <v>5</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6423260784909903</v>
+        <v>0.648900426654893</v>
       </c>
       <c r="W119" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.608423</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -10967,24 +10967,24 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>[0.3665374379477465, 0.37786317674671466, 0.4070951801122176, 0.4653793569804067, 0.5591275854120401, 0.5703640653466163, 0.650668994383932]</t>
+          <t>[0.37225314678525284, 0.38606434027900394, 0.4125563596396209, 0.4669097146934132, 0.5647109437598633, 0.584272362404292, 0.6568105868547626]</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>[112, 104, 243, 170, 28, 207, 24]</t>
+          <t>[112, 104, 243, 170, 28, 207, 56]</t>
         </is>
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>[0.37786317674671466, 0.4070951801122176, 0.5591275854120401, 0.5703640653466163, 0.650668994383932, 0.6865129103600859, 0.7111032972038485]</t>
+          <t>[0.38606434027900394, 0.4125563596396209, 0.5647109437598633, 0.584272362404292, 0.6568105868547626, 0.7091278554156928, 0.7198020073955511]</t>
         </is>
       </c>
       <c r="U120" t="n">
         <v>5</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5647458253793283</v>
+        <v>0.5744916530820776</v>
       </c>
       <c r="W120" t="n">
         <v>6</v>
@@ -10997,7 +10997,7 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.608423</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -11057,7 +11057,7 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>[0.2512529172973102, 0.320934838866349, 0.384423656015974, 0.49141615291234236, 0.5035066116965395, 0.6012105396583689, 0.6100960782669127]</t>
+          <t>[0.25495137979597704, 0.3378381546600422, 0.38771270397316493, 0.5136004616039491, 0.515154263054088, 0.6054931447295141, 0.6156894484037194]</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
@@ -11067,14 +11067,14 @@
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>[0.2512529172973102, 0.320934838866349, 0.384423656015974, 0.49141615291234236, 0.5035066116965395, 0.6012105396583689, 0.6100960782669127]</t>
+          <t>[0.25495137979597704, 0.3378381546600422, 0.38771270397316493, 0.5136004616039491, 0.515154263054088, 0.6054931447295141, 0.6156894484037194]</t>
         </is>
       </c>
       <c r="U121" t="n">
         <v>5</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5523585756774543</v>
+        <v>0.560323703891801</v>
       </c>
       <c r="W121" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.608423</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -11143,7 +11143,7 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>[0.37931187091345836, 0.4323247399465218, 0.4537169929873896, 0.49141615291234236, 0.7220077611591569, 0.7502971142410697, 0.7913079879013891]</t>
+          <t>[0.38266026183001, 0.45037251073466894, 0.4770073124520764, 0.5136004616039491, 0.7459006092753986, 0.7587509046708328, 0.8135835752032297]</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -11153,14 +11153,14 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>[0.37931187091345836, 0.4323247399465218, 0.4537169929873896, 0.49141615291234236, 0.7220077611591569, 0.7502971142410697, 0.7913079879013891]</t>
+          <t>[0.38266026183001, 0.45037251073466894, 0.4770073124520764, 0.5136004616039491, 0.7459006092753986, 0.7587509046708328, 0.8135835752032297]</t>
         </is>
       </c>
       <c r="U122" t="n">
         <v>5</v>
       </c>
       <c r="V122" t="n">
-        <v>0.7361524377001133</v>
+        <v>0.7523257569731157</v>
       </c>
       <c r="W122" t="n">
         <v>0</v>
@@ -11169,7 +11169,7 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.608423</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -11229,7 +11229,7 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>[0.4204065778950471, 0.4236839368560797, 0.4311512089532454, 0.6260691010912444, 0.6837925511059106, 0.6865129103600859, 0.7012077414717325]</t>
+          <t>[0.4329256751652859, 0.44074052474690184, 0.4559973337827146, 0.6432787062698017, 0.6864156315669987, 0.7091278554156928, 0.7149810845005588]</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
@@ -11239,14 +11239,14 @@
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>[0.4204065778950471, 0.4236839368560797, 0.6260691010912444, 0.6837925511059106, 0.6865129103600859, 0.7012077414717325, 0.7099268248324855]</t>
+          <t>[0.4329256751652859, 0.44074052474690184, 0.6432787062698017, 0.6864156315669987, 0.7091278554156928, 0.7149810845005588, 0.7185410072426086]</t>
         </is>
       </c>
       <c r="U123" t="n">
         <v>5</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6851527307329983</v>
+        <v>0.6977717434913457</v>
       </c>
       <c r="W123" t="n">
         <v>5</v>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.608423</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>[1, 8, 248, 239, 3, 38, 27]</t>
+          <t>[1, 8, 248, 239, 38, 3, 41]</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
@@ -11319,7 +11319,7 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>[0.25406760694766084, 0.2974937405238257, 0.3847053427186928, 0.43586842575331936, 0.4380539576790937, 0.4535228887766192, 0.46890806169368304]</t>
+          <t>[0.26037979324345284, 0.3038360074536832, 0.38600650502964845, 0.4470527948314115, 0.4565233828226517, 0.4615049338930938, 0.48943199253496056]</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
@@ -11329,14 +11329,14 @@
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>[0.43586842575331936, 1.3719624642578006, 1.4353635350956855, 1.5975797003868755, 1.6668390399420683, 1.746408766673111, 1.767882753902559]</t>
+          <t>[0.4470527948314115, 1.404853067775489, 1.4509602172558298, 1.6854120632622864, 1.7051686500327112, 1.7789294720174988, 1.7972799597618658]</t>
         </is>
       </c>
       <c r="U124" t="n">
         <v>5</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4457884232278565</v>
+        <v>0.4590141583578727</v>
       </c>
       <c r="W124" t="n">
         <v>0</v>
@@ -11345,7 +11345,7 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.608423</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -11395,17 +11395,17 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>[37, 214, 182, 76, 100, 127, 122]</t>
+          <t>[37, 214, 182, 100, 76, 127, 122]</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>[0.7164177156485045, 1.032322568635369, 1.04451179021934, 1.180068702473034, 1.1879479627105847, 1.197306147303551, 1.2342757812008585]</t>
+          <t>[0.7265490239653078, 1.0733912278258146, 1.074640074031811, 1.193724336282498, 1.2003915561096015, 1.2105415910107962, 1.2672821525434086]</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
@@ -11415,14 +11415,14 @@
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>[1.180068702473034, 1.3899807161651685, 1.44571568034646, 1.4659516460492816, 1.587026790646779, 1.6469886741536985, 1.7303213986055972]</t>
+          <t>[1.2003915561096015, 1.4209521813839427, 1.4725007761110607, 1.4980876054937813, 1.6163456822701083, 1.685505299162911, 1.7656421478030118]</t>
         </is>
       </c>
       <c r="U125" t="n">
         <v>5</v>
       </c>
       <c r="V125" t="n">
-        <v>1.192627055007068</v>
+        <v>1.205466573560199</v>
       </c>
       <c r="W125" t="n">
         <v>0</v>
@@ -11431,7 +11431,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.609420</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -11464,51 +11464,51 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K126" t="n">
         <v>0.1428571428571428</v>
       </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O126" t="b">
         <v>0</v>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>[169, 181, 165, 87, 162, 228, 153]</t>
+          <t>[169, 181, 165, 87, 162, 228, 69]</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>[0.5796793915091272, 0.6127418896330823, 0.6435622968341397, 0.6830220863616847, 0.728052605741811, 0.820233586194351, 0.8655965269393263]</t>
+          <t>[0.5975190888815177, 0.6440385019689907, 0.6496704295859557, 0.7064669646624254, 0.7543380556067482, 0.8430449887834333, 0.894755617142723]</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>[69, 113, 146, 9, 63, 137, 23]</t>
+          <t>[69, 113, 9, 146, 63, 137, 23]</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>[0.887476408560437, 0.9784156582831, 1.0425771761517144, 1.0486203289084965, 1.0695738003610518, 1.1636520131182937, 1.2023591917443714]</t>
+          <t>[0.894755617142723, 1.0009036064369532, 1.0507762639008396, 1.0738502476649894, 1.0858717404281302, 1.1811895129324177, 1.2228450809985132]</t>
         </is>
       </c>
       <c r="U126" t="n">
         <v>5</v>
       </c>
       <c r="V126" t="n">
-        <v>0.7741430959680811</v>
+        <v>0.7986915221950908</v>
       </c>
       <c r="W126" t="n">
         <v>0</v>
@@ -11517,7 +11517,7 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.609420</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -11567,17 +11567,17 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>[8, 160, 254, 1, 242, 217, 103]</t>
+          <t>[8, 160, 254, 1, 103, 242, 217]</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>[0.28967346764321855, 0.3013443736020699, 0.32920797142409275, 0.4059912379596875, 0.4351111298749737, 0.43586842575331936, 0.43779701153390893]</t>
+          <t>[0.29504325442269286, 0.30182774289033304, 0.33097448653762696, 0.4197080539171687, 0.44390369210302844, 0.44520354417793273, 0.4470527948314115]</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -11587,14 +11587,14 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>[0.43586842575331936, 1.2953803597055176, 1.4476529433548455, 1.5537521839158792, 1.6949353928777342, 1.7551786816886812, 1.7596986964850532]</t>
+          <t>[0.4470527948314115, 1.3086182440035963, 1.4898063824430894, 1.6513322322552673, 1.740841186074083, 1.7946709434484973, 1.7959099373966032]</t>
         </is>
       </c>
       <c r="U127" t="n">
         <v>5</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4354897778141466</v>
+        <v>0.4445536181404806</v>
       </c>
       <c r="W127" t="n">
         <v>0</v>
@@ -11603,7 +11603,7 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.609420</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>[0.5035066116965395, 0.5591275854120401, 0.615544648630207, 0.6400236547186597, 0.6523490598326882, 0.7123707062042264, 0.7220077611591569]</t>
+          <t>[0.515154263054088, 0.5647109437598633, 0.6343241479987242, 0.6561372737161582, 0.6632820531993381, 0.7263589357102146, 0.7459006092753986]</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -11673,14 +11673,14 @@
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>[0.5035066116965395, 0.5591275854120401, 0.615544648630207, 0.6400236547186597, 0.6523490598326882, 0.7123707062042264, 0.7220077611591569]</t>
+          <t>[0.515154263054088, 0.5647109437598633, 0.6343241479987242, 0.6561372737161582, 0.6632820531993381, 0.7263589357102146, 0.7459006092753986]</t>
         </is>
       </c>
       <c r="U128" t="n">
         <v>5</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6823598830184573</v>
+        <v>0.6948204944547763</v>
       </c>
       <c r="W128" t="n">
         <v>0</v>
@@ -11689,7 +11689,7 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.609420</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -11749,7 +11749,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>[0.28480322330557833, 0.384423656015974, 0.4323247399465218, 0.5598381321351875, 0.6523490598326882, 0.7358828169627238, 0.7630933295506642]</t>
+          <t>[0.28788458906815456, 0.38771270397316493, 0.45037251073466894, 0.5680099816657718, 0.6632820531993381, 0.7396705287189475, 0.7646934104397223]</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
@@ -11759,14 +11759,14 @@
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>[0.28480322330557833, 0.384423656015974, 0.4323247399465218, 0.5598381321351875, 0.6523490598326882, 0.7358828169627238, 0.7630933295506642]</t>
+          <t>[0.28788458906815456, 0.38771270397316493, 0.45037251073466894, 0.5680099816657718, 0.6632820531993381, 0.7396705287189475, 0.7646934104397223]</t>
         </is>
       </c>
       <c r="U129" t="n">
         <v>5</v>
       </c>
       <c r="V129" t="n">
-        <v>0.694115938397706</v>
+        <v>0.7014762909591428</v>
       </c>
       <c r="W129" t="n">
         <v>0</v>
@@ -11775,7 +11775,7 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.609420</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>[83, 266, 157, 250, 111, 34, 206]</t>
+          <t>[83, 266, 157, 250, 111, 34, 170]</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -11835,24 +11835,24 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>[0.5290102580671566, 0.679624827709715, 0.7421214974881467, 0.7630933295506642, 0.7691502040390461, 0.804790785143448, 0.8413714441297505]</t>
+          <t>[0.5471638616624125, 0.6923938130246088, 0.7437242606906107, 0.7646934104397223, 0.7788980076444337, 0.8080291404585112, 0.8523900314474124]</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
         <is>
-          <t>[83, 266, 157, 250, 111, 34, 206]</t>
+          <t>[83, 266, 157, 250, 111, 34, 170]</t>
         </is>
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>[0.5290102580671566, 0.679624827709715, 0.7421214974881467, 0.7630933295506642, 0.7691502040390461, 0.804790785143448, 0.8413714441297505]</t>
+          <t>[0.5471638616624125, 0.6923938130246088, 0.7437242606906107, 0.7646934104397223, 0.7788980076444337, 0.8080291404585112, 0.8523900314474124]</t>
         </is>
       </c>
       <c r="U130" t="n">
         <v>5</v>
       </c>
       <c r="V130" t="n">
-        <v>0.786970494591247</v>
+        <v>0.7934635740514724</v>
       </c>
       <c r="W130" t="n">
         <v>0</v>
@@ -11861,7 +11861,7 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.609420</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
@@ -11897,7 +11897,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K131" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>[0.679624827709715, 0.7205076839911205, 0.7600135796892133, 0.774519612060391, 0.7910781154905069, 0.8945177320320554, 0.9092458885248004]</t>
+          <t>[0.6923938130246088, 0.728445951344312, 0.7629396852602442, 0.7765970157210043, 0.7932575736201397, 0.8950188386307387, 0.9239588829068643]</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
@@ -11931,14 +11931,14 @@
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>[0.679624827709715, 0.7205076839911205, 0.7600135796892133, 0.7910781154905069, 0.8945177320320554, 0.9092458885248004, 0.9688673751293614]</t>
+          <t>[0.6923938130246088, 0.728445951344312, 0.7629396852602442, 0.7932575736201397, 0.8950188386307387, 0.9239588829068643, 0.9914772848619904]</t>
         </is>
       </c>
       <c r="U131" t="n">
         <v>5</v>
       </c>
       <c r="V131" t="n">
-        <v>0.8427979237612812</v>
+        <v>0.8441382061254392</v>
       </c>
       <c r="W131" t="n">
         <v>0</v>
@@ -11947,7 +11947,7 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:51.609420</t>
+          <t>2025-11-16T17:30:46.883336</t>
         </is>
       </c>
     </row>
